--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -699,9 +699,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>-275000000</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -717,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -803,7 +801,9 @@
         <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>-275000000</v>
+      </c>
       <c r="M6" t="n">
         <v>-0.9304001033515519</v>
       </c>
@@ -829,7 +829,7 @@
         <v>25000000</v>
       </c>
       <c r="U6" t="n">
-        <v>25000000</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="7">
@@ -1120,9 +1120,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>-3550000000</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1138,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3550000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1224,7 +1222,9 @@
         <v>0</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>-3550000000</v>
+      </c>
       <c r="M13" t="n">
         <v>0.8408085840118025</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3550000000</v>
       </c>
     </row>
     <row r="14">
@@ -1413,9 +1413,7 @@
         <v>2401000000</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>-3756000000</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>-1.233635386138733</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>13321824200</v>
       </c>
       <c r="U16" t="n">
-        <v>17077824200</v>
+        <v>13321824200</v>
       </c>
     </row>
     <row r="17">

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,136 +543,136 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20070900</v>
+        <v>20070100</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>155000000000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20000000000</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1624404000000</v>
+        <v>1722032000000</v>
       </c>
       <c r="G2" t="n">
-        <v>1642285000000</v>
+        <v>1656747000000</v>
       </c>
       <c r="H2" t="n">
-        <v>17881000000</v>
+        <v>-65285000000</v>
       </c>
       <c r="I2" t="n">
-        <v>10875237800</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6001000000</v>
+        <v>2401000000</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>-26054000000</v>
+        <v>-1470000000</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5632536362400912</v>
+        <v>0.5013029553568004</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.384137043556206</v>
+        <v>-0.301051082610334</v>
       </c>
       <c r="O2" t="n">
-        <v>0.68510545953476</v>
+        <v>-1.079318030945965</v>
       </c>
       <c r="P2" t="n">
-        <v>2.032944016248662</v>
+        <v>3.676818678583795</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2799343199681946</v>
+        <v>-0.1950944066095202</v>
       </c>
       <c r="R2" t="n">
-        <v>164124762200</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3123762200</v>
+        <v>-2401000000</v>
       </c>
       <c r="T2" t="n">
-        <v>3123762200</v>
+        <v>-2401000000</v>
       </c>
       <c r="U2" t="n">
-        <v>29177762200</v>
+        <v>-931000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20071000</v>
+        <v>20070200</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>175000000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>152000000000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23000000000</v>
       </c>
       <c r="F3" t="n">
-        <v>1642285000000</v>
+        <v>1656747000000</v>
       </c>
       <c r="G3" t="n">
-        <v>1641080000000</v>
+        <v>1659147000000</v>
       </c>
       <c r="H3" t="n">
-        <v>-1205000000</v>
+        <v>2400000000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="J3" t="n">
-        <v>1201000000</v>
+        <v>3601000000</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-40000000</v>
+        <v>-42556000000</v>
       </c>
       <c r="M3" t="n">
-        <v>1.046480713249013</v>
+        <v>0.4501120620449166</v>
       </c>
       <c r="N3" t="n">
-        <v>1.437158088986327</v>
+        <v>0.3562117200229949</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.233962947899218</v>
+        <v>1.382602448310755</v>
       </c>
       <c r="P3" t="n">
-        <v>10.77148962157504</v>
+        <v>7.288701470384248</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.05167485515584625</v>
+        <v>0.1235231546034148</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>161469916200</v>
       </c>
       <c r="S3" t="n">
-        <v>-1201000000</v>
+        <v>5868916200</v>
       </c>
       <c r="T3" t="n">
-        <v>-1201000000</v>
+        <v>5868916200</v>
       </c>
       <c r="U3" t="n">
-        <v>-1161000000</v>
+        <v>48424916200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20071100</v>
+        <v>20070600</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1661799000000</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1660660000000</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-1139000000</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -699,12 +699,24 @@
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.575448225744402</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.768227827016889</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6201934792432118</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12.76111893664226</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.5455468563793007</v>
+      </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
@@ -715,484 +727,520 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20071200</v>
+        <v>20070700</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>145000000000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>150000000000</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-5000000000</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1660660000000</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1642079000000</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-18581000000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12801000000</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>-701000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1.086390488381492</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1.516313087641564</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.04916533336684165</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.301060431585421</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0930194706879845</v>
+      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>138562377200</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-24238622800</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-24238622800</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-23537622800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20071300</v>
+        <v>20070800</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1641080000000</v>
+        <v>1642079000000</v>
       </c>
       <c r="G6" t="n">
-        <v>1653555000000</v>
+        <v>1624404000000</v>
       </c>
       <c r="H6" t="n">
-        <v>12475000000</v>
+        <v>-17675000000</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1732000000</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-275000000</v>
+        <v>-2562000000</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.9304001033515519</v>
+        <v>0.7808222625285763</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04003802420691794</v>
+        <v>0.6824631836796503</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8178389810078175</v>
+        <v>-0.02470883484085183</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.868593479223176</v>
+        <v>-1.706760175711744</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09311397048957253</v>
+        <v>-0.4639622210057633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>25000000</v>
+        <v>-1732000000</v>
       </c>
       <c r="T6" t="n">
-        <v>25000000</v>
+        <v>-1732000000</v>
       </c>
       <c r="U6" t="n">
-        <v>300000000</v>
+        <v>830000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20071400</v>
+        <v>20070900</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>135000000000</v>
+        <v>175000000000</v>
       </c>
       <c r="D7" t="n">
-        <v>180000000000</v>
+        <v>155000000000</v>
       </c>
       <c r="E7" t="n">
-        <v>-45000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F7" t="n">
-        <v>1653555000000</v>
+        <v>1624404000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1627709000000</v>
+        <v>1642285000000</v>
       </c>
       <c r="H7" t="n">
-        <v>-25846000000</v>
+        <v>17881000000</v>
       </c>
       <c r="I7" t="n">
-        <v>6657527900</v>
+        <v>10875237800</v>
       </c>
       <c r="J7" t="n">
-        <v>1732000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>59556734928</v>
-      </c>
+        <v>6001000000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2114000000</v>
+        <v>-26054000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1.346659218604838</v>
+        <v>-0.5632536362400912</v>
       </c>
       <c r="N7" t="n">
-        <v>2.137864497775151</v>
+        <v>-1.384137043556206</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1020691934908161</v>
+        <v>0.68510545953476</v>
       </c>
       <c r="P7" t="n">
-        <v>1.268636904522815</v>
+        <v>2.032944016248662</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.3107472752416666</v>
+        <v>0.2799343199681946</v>
       </c>
       <c r="R7" t="n">
-        <v>128342472100</v>
+        <v>164124762200</v>
       </c>
       <c r="S7" t="n">
-        <v>-53389527900</v>
+        <v>3123762200</v>
       </c>
       <c r="T7" t="n">
-        <v>-112946262828</v>
+        <v>3123762200</v>
       </c>
       <c r="U7" t="n">
-        <v>-115060262828</v>
+        <v>29177762200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20071500</v>
+        <v>20071000</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>94000000000</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>56000000000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>38000000000</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1627709000000</v>
+        <v>1642285000000</v>
       </c>
       <c r="G8" t="n">
-        <v>1740455000000</v>
+        <v>1641080000000</v>
       </c>
       <c r="H8" t="n">
-        <v>112746000000</v>
+        <v>-1205000000</v>
       </c>
       <c r="I8" t="n">
-        <v>7457547200</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12801000000</v>
+        <v>1201000000</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>10000000</v>
+        <v>-40000000</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9001927860159984</v>
+        <v>1.046480713249013</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8423227005985889</v>
+        <v>1.437158088986327</v>
       </c>
       <c r="O8" t="n">
-        <v>1.210777523318008</v>
+        <v>-3.233962947899218</v>
       </c>
       <c r="P8" t="n">
-        <v>1.893062925307842</v>
+        <v>10.77148962157504</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1871688765757988</v>
+        <v>-0.05167485515584625</v>
       </c>
       <c r="R8" t="n">
-        <v>86542452800</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>17741452800</v>
+        <v>-1201000000</v>
       </c>
       <c r="T8" t="n">
-        <v>17741452800</v>
+        <v>-1201000000</v>
       </c>
       <c r="U8" t="n">
-        <v>17731452800</v>
+        <v>-1161000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20071600</v>
+        <v>20071300</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>209000000000</v>
+        <v>25000000</v>
       </c>
       <c r="D9" t="n">
-        <v>184000000000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25000000000</v>
+        <v>25000000</v>
       </c>
       <c r="F9" t="n">
-        <v>1740455000000</v>
+        <v>1641080000000</v>
       </c>
       <c r="G9" t="n">
-        <v>1807305000000</v>
+        <v>1653555000000</v>
       </c>
       <c r="H9" t="n">
-        <v>66850000000</v>
+        <v>12475000000</v>
       </c>
       <c r="I9" t="n">
-        <v>18724230800</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3601000000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12148000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-26353000000</v>
+        <v>-275000000</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.3425422915885264</v>
+        <v>-0.9304001033515519</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5061907762122538</v>
+        <v>0.04003802420691794</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.5868011479533544</v>
+        <v>0.8178389810078175</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.07143397244584</v>
+        <v>-2.868593479223176</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2812465031941732</v>
+        <v>-0.09311397048957253</v>
       </c>
       <c r="R9" t="n">
-        <v>190275769200</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2674769200</v>
+        <v>25000000</v>
       </c>
       <c r="T9" t="n">
-        <v>-9473230800</v>
+        <v>25000000</v>
       </c>
       <c r="U9" t="n">
-        <v>16879769200</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20071700</v>
+        <v>20071400</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>135000000000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>180000000000</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-45000000000</v>
       </c>
       <c r="F10" t="n">
-        <v>1807305000000</v>
+        <v>1653555000000</v>
       </c>
       <c r="G10" t="n">
-        <v>1812801000000</v>
+        <v>1627709000000</v>
       </c>
       <c r="H10" t="n">
-        <v>5496000000</v>
+        <v>-25846000000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="J10" t="n">
-        <v>1199000000</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>1732000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59556734928</v>
+      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2114000000</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2840978788711261</v>
+        <v>1.346659218604838</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.2344075126535486</v>
+        <v>2.137864497775151</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.4663687257759945</v>
+        <v>-0.1020691934908161</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01321161441250016</v>
+        <v>1.268636904522815</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.4258371810480386</v>
+        <v>-0.3107472752416666</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>128342472100</v>
       </c>
       <c r="S10" t="n">
-        <v>-1199000000</v>
+        <v>-53389527900</v>
       </c>
       <c r="T10" t="n">
-        <v>-1199000000</v>
+        <v>-112946262828</v>
       </c>
       <c r="U10" t="n">
-        <v>-1199000000</v>
+        <v>-115060262828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20071800</v>
+        <v>20071500</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>94000000000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>56000000000</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>38000000000</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1627709000000</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1740455000000</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>112746000000</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7457547200</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>12801000000</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9001927860159984</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8423227005985889</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.210777523318008</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.893062925307842</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1871688765757988</v>
+      </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86542452800</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>17731452800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20071900</v>
+        <v>20071600</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>209000000000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>184000000000</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1740455000000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1807305000000</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>66850000000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+        <v>3601000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12148000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-26353000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.3425422915885264</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.5061907762122538</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.5868011479533544</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-3.07143397244584</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2812465031941732</v>
+      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>190275769200</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2674769200</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-9473230800</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>16879769200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20072000</v>
+        <v>20071700</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -1207,308 +1255,310 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>1807305000000</v>
+      </c>
+      <c r="G13" t="n">
         <v>1812801000000</v>
       </c>
-      <c r="G13" t="n">
-        <v>1817270000000</v>
-      </c>
       <c r="H13" t="n">
-        <v>4469000000</v>
+        <v>5496000000</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1199000000</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>-3550000000</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8408085840118025</v>
+        <v>0.2840978788711261</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03345770878211009</v>
+        <v>-0.2344075126535486</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04955514732708439</v>
+        <v>-0.4663687257759945</v>
       </c>
       <c r="P13" t="n">
-        <v>9.358729255617085</v>
+        <v>0.01321161441250016</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1145720319800436</v>
+        <v>-0.4258371810480386</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1199000000</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1199000000</v>
       </c>
       <c r="U13" t="n">
-        <v>3550000000</v>
+        <v>-1199000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20072100</v>
+        <v>20072000</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>125000000000</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>170000000000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-45000000000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>1812801000000</v>
+      </c>
+      <c r="G14" t="n">
         <v>1817270000000</v>
       </c>
-      <c r="G14" t="n">
-        <v>1794448000000</v>
-      </c>
       <c r="H14" t="n">
-        <v>-22822000000</v>
+        <v>4469000000</v>
       </c>
       <c r="I14" t="n">
-        <v>5332930800</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1734000000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29183280071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>-1616000000</v>
+        <v>-3550000000</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1670468868134096</v>
+        <v>0.8408085840118025</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5945306672427577</v>
+        <v>0.03345770878211009</v>
       </c>
       <c r="O14" t="n">
-        <v>2.717915748058488</v>
+        <v>0.04955514732708439</v>
       </c>
       <c r="P14" t="n">
-        <v>-4.551414524024201</v>
+        <v>9.358729255617085</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.7415134041489883</v>
+        <v>-0.1145720319800436</v>
       </c>
       <c r="R14" t="n">
-        <v>119667069200</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-52066930800</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-81250210871</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-79634210871</v>
+        <v>3550000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20072200</v>
+        <v>20072100</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>125000000000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>170000000000</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-45000000000</v>
       </c>
       <c r="F15" t="n">
+        <v>1817270000000</v>
+      </c>
+      <c r="G15" t="n">
         <v>1794448000000</v>
       </c>
-      <c r="G15" t="n">
-        <v>1777180000000</v>
-      </c>
       <c r="H15" t="n">
-        <v>-17268000000</v>
+        <v>-22822000000</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5332930800</v>
       </c>
       <c r="J15" t="n">
-        <v>6001000000</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>1734000000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29183280071</v>
+      </c>
       <c r="L15" t="n">
-        <v>-1339000000</v>
+        <v>-1616000000</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5751390254972526</v>
+        <v>0.1670468868134096</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6167461824244995</v>
+        <v>0.5945306672427577</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0721124528779416</v>
+        <v>2.717915748058488</v>
       </c>
       <c r="P15" t="n">
-        <v>1.499060081496248</v>
+        <v>-4.551414524024201</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1576805741719043</v>
+        <v>-0.7415134041489883</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>119667069200</v>
       </c>
       <c r="S15" t="n">
-        <v>-6001000000</v>
+        <v>-52066930800</v>
       </c>
       <c r="T15" t="n">
-        <v>-6001000000</v>
+        <v>-81250210871</v>
       </c>
       <c r="U15" t="n">
-        <v>-4662000000</v>
+        <v>-79634210871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20072300</v>
+        <v>20072200</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>185000000000</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>153000000000</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>32000000000</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>1794448000000</v>
+      </c>
+      <c r="G16" t="n">
         <v>1777180000000</v>
       </c>
-      <c r="G16" t="n">
-        <v>1821824000000</v>
-      </c>
       <c r="H16" t="n">
-        <v>44644000000</v>
+        <v>-17268000000</v>
       </c>
       <c r="I16" t="n">
-        <v>16277175800</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2401000000</v>
+        <v>6001000000</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-1339000000</v>
+      </c>
       <c r="M16" t="n">
-        <v>-1.233635386138733</v>
+        <v>0.5751390254972526</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.311434002946211</v>
+        <v>0.6167461824244995</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.5487197814543</v>
+        <v>-0.0721124528779416</v>
       </c>
       <c r="P16" t="n">
-        <v>-4.720808366580733</v>
+        <v>1.499060081496248</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.2947976093922036</v>
+        <v>-0.1576805741719043</v>
       </c>
       <c r="R16" t="n">
-        <v>168722824200</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13321824200</v>
+        <v>-6001000000</v>
       </c>
       <c r="T16" t="n">
-        <v>13321824200</v>
+        <v>-6001000000</v>
       </c>
       <c r="U16" t="n">
-        <v>13321824200</v>
+        <v>-4662000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20072400</v>
+        <v>20072300</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>185000000000</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>153000000000</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>32000000000</v>
       </c>
       <c r="F17" t="n">
+        <v>1777180000000</v>
+      </c>
+      <c r="G17" t="n">
         <v>1821824000000</v>
       </c>
-      <c r="G17" t="n">
-        <v>1825498000000</v>
-      </c>
       <c r="H17" t="n">
-        <v>3674000000</v>
+        <v>44644000000</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="J17" t="n">
-        <v>1732000000</v>
+        <v>2401000000</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-0.6223250256536601</v>
+        <v>-1.233635386138733</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.6875838878253876</v>
+        <v>-1.311434002946211</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6316771683602186</v>
+        <v>-1.5487197814543</v>
       </c>
       <c r="P17" t="n">
-        <v>-6.784552766329935</v>
+        <v>-4.720808366580733</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.2637965694370324</v>
+        <v>-0.2947976093922036</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>168722824200</v>
       </c>
       <c r="S17" t="n">
-        <v>-1732000000</v>
+        <v>13321824200</v>
       </c>
       <c r="T17" t="n">
-        <v>-1732000000</v>
+        <v>13321824200</v>
       </c>
       <c r="U17" t="n">
-        <v>-1732000000</v>
+        <v>13321824200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20072500</v>
+        <v>20072400</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1520,46 +1570,56 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1821824000000</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1825498000000</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3674000000</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1732000000</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>-0.6223250256536601</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.6875838878253876</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6316771683602186</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-6.784552766329935</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.2637965694370324</v>
+      </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>-1732000000</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>-1732000000</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>-1732000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20072600</v>
+        <v>20072700</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1571,98 +1631,47 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1825498000000</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1830546000000</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5048000000</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8801000000</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0.7385469044350499</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4343630519790444</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.479506711433924</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8.543552305640244</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.8055136709291276</v>
+      </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-8801000000</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-8801000000</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>20072700</v>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1825498000000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1830546000000</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5048000000</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8801000000</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>0.7385469044350499</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.4343630519790444</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.479506711433924</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8.543552305640244</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-0.8055136709291276</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>-8801000000</v>
-      </c>
-      <c r="T20" t="n">
-        <v>-8801000000</v>
-      </c>
-      <c r="U20" t="n">
         <v>-8801000000</v>
       </c>
     </row>

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,10 +543,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20070100</v>
+        <v>20053000</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -558,244 +558,220 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1722032000000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-65285000000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2401000000</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>-1470000000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5013029553568004</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.301051082610334</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-1.079318030945965</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.676818678583795</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.1950944066095202</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-931000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20070200</v>
+        <v>20053100</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>152000000000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23000000000</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1659147000000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2400000000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13530083800</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3601000000</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>-42556000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.4501120620449166</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3562117200229949</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.382602448310755</v>
-      </c>
-      <c r="P3" t="n">
-        <v>7.288701470384248</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1235231546034148</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>161469916200</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>48424916200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20070600</v>
+        <v>20060100</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>147000000000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>97000000000</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50000000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1661799000000</v>
+        <v>1449129000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1660660000000</v>
+        <v>1394436000000</v>
       </c>
       <c r="H4" t="n">
-        <v>-1139000000</v>
+        <v>-54693000000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15432490200</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6500000000</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-500000000</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.575448225744402</v>
+        <v>0.3758061381508548</v>
       </c>
       <c r="N4" t="n">
-        <v>1.768227827016889</v>
+        <v>0.3626650028272272</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6201934792432118</v>
+        <v>0.5396263741740329</v>
       </c>
       <c r="P4" t="n">
-        <v>12.76111893664226</v>
+        <v>7.354309508850524</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.5455468563793007</v>
+        <v>-0.5289894475309557</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>131567509800</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>28067509800</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>28067509800</v>
       </c>
       <c r="U4" t="n">
-        <v>500000000</v>
+        <v>28067509800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20070700</v>
+        <v>20060200</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>145000000000</v>
+        <v>230000000000</v>
       </c>
       <c r="D5" t="n">
         <v>150000000000</v>
       </c>
       <c r="E5" t="n">
-        <v>-5000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="F5" t="n">
-        <v>1660660000000</v>
+        <v>1394436000000</v>
       </c>
       <c r="G5" t="n">
-        <v>1642079000000</v>
+        <v>1455494000000</v>
       </c>
       <c r="H5" t="n">
-        <v>-18581000000</v>
+        <v>61058000000</v>
       </c>
       <c r="I5" t="n">
-        <v>6437622800</v>
+        <v>6713800200</v>
       </c>
       <c r="J5" t="n">
-        <v>12801000000</v>
+        <v>7000000000</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-701000000</v>
+        <v>-179000000</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.086390488381492</v>
+        <v>0.8186586851514167</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.516313087641564</v>
+        <v>1.046147386101197</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04916533336684165</v>
+        <v>-0.1406160006376423</v>
       </c>
       <c r="P5" t="n">
-        <v>1.301060431585421</v>
+        <v>-1.84866187567643</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0930194706879845</v>
+        <v>-0.1533130943309479</v>
       </c>
       <c r="R5" t="n">
-        <v>138562377200</v>
+        <v>223286199800</v>
       </c>
       <c r="S5" t="n">
-        <v>-24238622800</v>
+        <v>66286199800</v>
       </c>
       <c r="T5" t="n">
-        <v>-24238622800</v>
+        <v>66286199800</v>
       </c>
       <c r="U5" t="n">
-        <v>-23537622800</v>
+        <v>66465199800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20070800</v>
+        <v>20060300</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -810,118 +786,118 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1642079000000</v>
+        <v>1455494000000</v>
       </c>
       <c r="G6" t="n">
-        <v>1624404000000</v>
+        <v>1431462000000</v>
       </c>
       <c r="H6" t="n">
-        <v>-17675000000</v>
+        <v>-24032000000</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1732000000</v>
+        <v>3000000000</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-2562000000</v>
+        <v>-449000000</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7808222625285763</v>
+        <v>1.356934723716692</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6824631836796503</v>
+        <v>2.035135905541504</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.02470883484085183</v>
+        <v>3.716773532003923</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.706760175711744</v>
+        <v>0.1576391052740307</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4639622210057633</v>
+        <v>-0.3997124022427621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-1732000000</v>
+        <v>-3000000000</v>
       </c>
       <c r="T6" t="n">
-        <v>-1732000000</v>
+        <v>-3000000000</v>
       </c>
       <c r="U6" t="n">
-        <v>830000000</v>
+        <v>-2551000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20070900</v>
+        <v>20060400</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>175000000000</v>
+        <v>222000000000</v>
       </c>
       <c r="D7" t="n">
-        <v>155000000000</v>
+        <v>146000000000</v>
       </c>
       <c r="E7" t="n">
-        <v>20000000000</v>
+        <v>76000000000</v>
       </c>
       <c r="F7" t="n">
-        <v>1624404000000</v>
+        <v>1431462000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1642285000000</v>
+        <v>1501733000000</v>
       </c>
       <c r="H7" t="n">
-        <v>17881000000</v>
+        <v>70271000000</v>
       </c>
       <c r="I7" t="n">
-        <v>10875237800</v>
+        <v>10194000000</v>
       </c>
       <c r="J7" t="n">
-        <v>6001000000</v>
+        <v>2100000000</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-26054000000</v>
+        <v>20000000</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.5632536362400912</v>
+        <v>-0.3380946963307035</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.384137043556206</v>
+        <v>0.045487167338784</v>
       </c>
       <c r="O7" t="n">
-        <v>0.68510545953476</v>
+        <v>1.305765952538564</v>
       </c>
       <c r="P7" t="n">
-        <v>2.032944016248662</v>
+        <v>-2.087923876016355</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2799343199681946</v>
+        <v>-0.6165212453787169</v>
       </c>
       <c r="R7" t="n">
-        <v>164124762200</v>
+        <v>211806000000</v>
       </c>
       <c r="S7" t="n">
-        <v>3123762200</v>
+        <v>63706000000</v>
       </c>
       <c r="T7" t="n">
-        <v>3123762200</v>
+        <v>63706000000</v>
       </c>
       <c r="U7" t="n">
-        <v>29177762200</v>
+        <v>63686000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20071000</v>
+        <v>20060500</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -936,76 +912,76 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1642285000000</v>
+        <v>1501733000000</v>
       </c>
       <c r="G8" t="n">
-        <v>1641080000000</v>
+        <v>1494494000000</v>
       </c>
       <c r="H8" t="n">
-        <v>-1205000000</v>
+        <v>-7239000000</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1201000000</v>
+        <v>4500000000</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-40000000</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.046480713249013</v>
+        <v>2.578506868808448</v>
       </c>
       <c r="N8" t="n">
-        <v>1.437158088986327</v>
+        <v>3.089638601145436</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.233962947899218</v>
+        <v>0.3214543959248857</v>
       </c>
       <c r="P8" t="n">
-        <v>10.77148962157504</v>
+        <v>2.424128270608282</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05167485515584625</v>
+        <v>0.2687638432622326</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-1201000000</v>
+        <v>-4500000000</v>
       </c>
       <c r="T8" t="n">
-        <v>-1201000000</v>
+        <v>-4500000000</v>
       </c>
       <c r="U8" t="n">
-        <v>-1161000000</v>
+        <v>-4500000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20071300</v>
+        <v>20060600</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1641080000000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1653555000000</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>12475000000</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1014,233 +990,205 @@
         <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>-275000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-0.9304001033515519</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.04003802420691794</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.8178389810078175</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-2.868593479223176</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.09311397048957253</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>300000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20071400</v>
+        <v>20060700</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>135000000000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>180000000000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-45000000000</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1653555000000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1627709000000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-25846000000</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6657527900</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1732000000</v>
-      </c>
-      <c r="K10" t="n">
-        <v>59556734928</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2114000000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.346659218604838</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.137864497775151</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-0.1020691934908161</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.268636904522815</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.3107472752416666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>128342472100</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-53389527900</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-112946262828</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-115060262828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20071500</v>
+        <v>20060800</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>94000000000</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>56000000000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>38000000000</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1627709000000</v>
+        <v>1494494000000</v>
       </c>
       <c r="G11" t="n">
-        <v>1740455000000</v>
+        <v>1520809000000</v>
       </c>
       <c r="H11" t="n">
-        <v>112746000000</v>
+        <v>26315000000</v>
       </c>
       <c r="I11" t="n">
-        <v>7457547200</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12801000000</v>
+        <v>5000000000</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9001927860159984</v>
+        <v>1.201903856236637</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8423227005985889</v>
+        <v>1.694488950216807</v>
       </c>
       <c r="O11" t="n">
-        <v>1.210777523318008</v>
+        <v>-2.207558830888691</v>
       </c>
       <c r="P11" t="n">
-        <v>1.893062925307842</v>
+        <v>6.992384087663221</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1871688765757988</v>
+        <v>-0.3304416634916914</v>
       </c>
       <c r="R11" t="n">
-        <v>86542452800</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17741452800</v>
+        <v>-5000000000</v>
       </c>
       <c r="T11" t="n">
-        <v>17741452800</v>
+        <v>-5000000000</v>
       </c>
       <c r="U11" t="n">
-        <v>17731452800</v>
+        <v>-5000000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20071600</v>
+        <v>20060900</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>209000000000</v>
+        <v>230000000000</v>
       </c>
       <c r="D12" t="n">
-        <v>184000000000</v>
+        <v>195000000000</v>
       </c>
       <c r="E12" t="n">
-        <v>25000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="F12" t="n">
-        <v>1740455000000</v>
+        <v>1520809000000</v>
       </c>
       <c r="G12" t="n">
-        <v>1807305000000</v>
+        <v>1535311000000</v>
       </c>
       <c r="H12" t="n">
-        <v>66850000000</v>
+        <v>14502000000</v>
       </c>
       <c r="I12" t="n">
-        <v>18724230800</v>
+        <v>6470094200</v>
       </c>
       <c r="J12" t="n">
-        <v>3601000000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12148000000</v>
-      </c>
+        <v>2000000000</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>-26353000000</v>
+        <v>-2500000000</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.3425422915885264</v>
+        <v>-0.7845455915125022</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.5061907762122538</v>
+        <v>-1.093506158412695</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.5868011479533544</v>
+        <v>-3.558347898782571</v>
       </c>
       <c r="P12" t="n">
-        <v>-3.07143397244584</v>
+        <v>-0.9840320745420919</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2812465031941732</v>
+        <v>-0.3104657562713538</v>
       </c>
       <c r="R12" t="n">
-        <v>190275769200</v>
+        <v>223529905800</v>
       </c>
       <c r="S12" t="n">
-        <v>2674769200</v>
+        <v>26529905800</v>
       </c>
       <c r="T12" t="n">
-        <v>-9473230800</v>
+        <v>26529905800</v>
       </c>
       <c r="U12" t="n">
-        <v>16879769200</v>
+        <v>29029905800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20071700</v>
+        <v>20061000</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -1255,186 +1203,186 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1807305000000</v>
+        <v>1535311000000</v>
       </c>
       <c r="G13" t="n">
-        <v>1812801000000</v>
+        <v>1504569000000</v>
       </c>
       <c r="H13" t="n">
-        <v>5496000000</v>
+        <v>-30742000000</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1199000000</v>
+        <v>2750000000</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>55000000</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2840978788711261</v>
+        <v>-0.5302773828749184</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.2344075126535486</v>
+        <v>-1.035930133287771</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.4663687257759945</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01321161441250016</v>
+        <v>8.507084072930574</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.4258371810480386</v>
+        <v>-0.3733284343173852</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1199000000</v>
+        <v>-2750000000</v>
       </c>
       <c r="T13" t="n">
-        <v>-1199000000</v>
+        <v>-2750000000</v>
       </c>
       <c r="U13" t="n">
-        <v>-1199000000</v>
+        <v>-2805000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20072000</v>
+        <v>20061100</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>217000000000</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>153000000000</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>64000000000</v>
       </c>
       <c r="F14" t="n">
-        <v>1812801000000</v>
+        <v>1504569000000</v>
       </c>
       <c r="G14" t="n">
-        <v>1817270000000</v>
+        <v>1550414000000</v>
       </c>
       <c r="H14" t="n">
-        <v>4469000000</v>
+        <v>45845000000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7193692400</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>6500000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>92706000000</v>
+      </c>
       <c r="L14" t="n">
-        <v>-3550000000</v>
+        <v>-91923000000</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8408085840118025</v>
+        <v>-6.020105238565734</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03345770878211009</v>
+        <v>-7.083875661429725</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04955514732708439</v>
+        <v>1.688410961462775</v>
       </c>
       <c r="P14" t="n">
-        <v>9.358729255617085</v>
+        <v>-5.272674341448116</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1145720319800436</v>
+        <v>0.8013365613557695</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>209806307600</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50306307600</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-42399692400</v>
       </c>
       <c r="U14" t="n">
-        <v>3550000000</v>
+        <v>49523307600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20072100</v>
+        <v>20061200</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>125000000000</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>170000000000</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-45000000000</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1817270000000</v>
+        <v>1550414000000</v>
       </c>
       <c r="G15" t="n">
-        <v>1794448000000</v>
+        <v>1541349000000</v>
       </c>
       <c r="H15" t="n">
-        <v>-22822000000</v>
+        <v>-9065000000</v>
       </c>
       <c r="I15" t="n">
-        <v>5332930800</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1734000000</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29183280071</v>
-      </c>
+        <v>4000000000</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-1616000000</v>
+        <v>5000000</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670468868134096</v>
+        <v>1.276764888727067</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5945306672427577</v>
+        <v>1.860405036740665</v>
       </c>
       <c r="O15" t="n">
-        <v>2.717915748058488</v>
+        <v>-8.990619063534911</v>
       </c>
       <c r="P15" t="n">
-        <v>-4.551414524024201</v>
+        <v>-3.832652812101403</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.7415134041489883</v>
+        <v>0.6094374060215555</v>
       </c>
       <c r="R15" t="n">
-        <v>119667069200</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-52066930800</v>
+        <v>-4000000000</v>
       </c>
       <c r="T15" t="n">
-        <v>-81250210871</v>
+        <v>-4000000000</v>
       </c>
       <c r="U15" t="n">
-        <v>-79634210871</v>
+        <v>-4005000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20072200</v>
+        <v>20061300</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1446,233 +1394,3063 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1794448000000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1777180000000</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-17268000000</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6001000000</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>-1339000000</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5751390254972526</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.6167461824244995</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-0.0721124528779416</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.499060081496248</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.1576805741719043</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-6001000000</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-6001000000</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-4662000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20072300</v>
+        <v>20061400</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>185000000000</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>153000000000</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>32000000000</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1777180000000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1821824000000</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44644000000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>16277175800</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2401000000</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>-1.233635386138733</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-1.311434002946211</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-1.5487197814543</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-4.720808366580733</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-0.2947976093922036</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>168722824200</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13321824200</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>13321824200</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13321824200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20072400</v>
+        <v>20061500</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>92000000000</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>24000000000</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>68000000000</v>
       </c>
       <c r="F18" t="n">
-        <v>1821824000000</v>
+        <v>1541349000000</v>
       </c>
       <c r="G18" t="n">
-        <v>1825498000000</v>
+        <v>1597571000000</v>
       </c>
       <c r="H18" t="n">
-        <v>3674000000</v>
+        <v>56222000000</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1308000000</v>
       </c>
       <c r="J18" t="n">
-        <v>1732000000</v>
+        <v>4401000000</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
       <c r="M18" t="n">
-        <v>-0.6223250256536601</v>
+        <v>0.8444240424887671</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.6875838878253876</v>
+        <v>0.623738255925753</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6316771683602186</v>
+        <v>1.859556457521444</v>
       </c>
       <c r="P18" t="n">
-        <v>-6.784552766329935</v>
+        <v>6.060209464994879</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.2637965694370324</v>
+        <v>-0.6591815982988862</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>90692000000</v>
       </c>
       <c r="S18" t="n">
-        <v>-1732000000</v>
+        <v>62291000000</v>
       </c>
       <c r="T18" t="n">
-        <v>-1732000000</v>
+        <v>62291000000</v>
       </c>
       <c r="U18" t="n">
-        <v>-1732000000</v>
+        <v>62291000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>20061600</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>205000000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>195000000000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1597571000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1588615000000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-8956000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6771856400</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4140000000</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.857230991496327</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.001089080557835</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.321189279516414</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.8667312094534071</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2899738881279159</v>
+      </c>
+      <c r="R19" t="n">
+        <v>198228143600</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-911856400</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-911856400</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-920856400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20061700</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1588615000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1565306000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-23309000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18607000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-142000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.3587223877957163</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.6470479762003841</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.004194270226732</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9780171234102023</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2061690271440812</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-25000000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-18632000000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-18490000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20061800</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>238000000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>169000000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>69000000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1565306000000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1634655000000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>69349000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17645591700</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4401000000</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>-72973000000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0596490153701297</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.1518645580447827</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-1.157901161595395</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.213364301626371</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2678146909065761</v>
+      </c>
+      <c r="R21" t="n">
+        <v>220354408300</v>
+      </c>
+      <c r="S21" t="n">
+        <v>46953408300</v>
+      </c>
+      <c r="T21" t="n">
+        <v>46953408300</v>
+      </c>
+      <c r="U21" t="n">
+        <v>119926408300</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20061900</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1634655000000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1635527000000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>872000000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>-2580000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.5604608949275374</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.795932854122987</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.152191080860247</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.3021384180253002</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.205301356390781</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-3601000000</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-3601000000</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-1021000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20062000</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20062100</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20062200</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1635527000000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1626909000000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-8618000000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12801000000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>43650000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-1075000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6502064262599703</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5934642364777378</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.153770816471319</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.6580346026818601</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.5938990470053808</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-12801000000</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-56451000000</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-55376000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20062300</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>190000000000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>185000000000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5000000000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1626909000000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1612877000000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-14032000000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5704144800</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1731000000</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-14000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4278819845653216</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5013062947638903</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.212383737536827</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.7468386529102113</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.3610837439586853</v>
+      </c>
+      <c r="R26" t="n">
+        <v>184295855200</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-2435144800</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-2435144800</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-2421144800</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20062400</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1612877000000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1586573000000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-26304000000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6001000000</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-864000000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-2.599536458904117</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-2.732124893187729</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.9002265447400821</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-4.117256069655388</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.4758939241101803</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-6001000000</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-6001000000</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-5137000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20062500</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>211000000000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>146000000000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1586573000000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1638128000000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>51555000000</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4249636400</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1201000000</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-46293000000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.097286501971252</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.181382018146926</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-6.202367037245382</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.633427056123663</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2879460977458528</v>
+      </c>
+      <c r="R28" t="n">
+        <v>206750363600</v>
+      </c>
+      <c r="S28" t="n">
+        <v>59549363600</v>
+      </c>
+      <c r="T28" t="n">
+        <v>59549363600</v>
+      </c>
+      <c r="U28" t="n">
+        <v>105842363600</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20062600</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1638128000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9120000000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1731000000</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>-1980000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-2.431015297556918</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-2.847116721616904</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.816328719361535</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-2.637768095618265</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.07190518327827917</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>18269000000</v>
+      </c>
+      <c r="T29" t="n">
+        <v>18269000000</v>
+      </c>
+      <c r="U29" t="n">
+        <v>20249000000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20062700</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20062800</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20062900</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-2558000000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8801000000</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>-100000000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.463926539198626</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.306932398326642</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.685993729666588</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.119656644574982</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.04102658002804487</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-8801000000</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-8801000000</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-8701000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20063000</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>331000000000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>248000000000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>83000000000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>77342000000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29235095200</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1735000000</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>295000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.542523427359198</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8508796723165883</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.052469987647463</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7.00050501816319</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.154005670974298</v>
+      </c>
+      <c r="R33" t="n">
+        <v>301764904800</v>
+      </c>
+      <c r="S33" t="n">
+        <v>52029904800</v>
+      </c>
+      <c r="T33" t="n">
+        <v>52029904800</v>
+      </c>
+      <c r="U33" t="n">
+        <v>51734904800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20070100</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-65285000000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2401000000</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>-1470000000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5013029553568004</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.301051082610334</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-1.079318030945965</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.676818678583795</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.1950944066095202</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-2401000000</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-2401000000</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-931000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20070200</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>175000000000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>152000000000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23000000000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13530083800</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>-42556000000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.4501120620449166</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.3562117200229949</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.382602448310755</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7.288701470384248</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1235231546034148</v>
+      </c>
+      <c r="R35" t="n">
+        <v>161469916200</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5868916200</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5868916200</v>
+      </c>
+      <c r="U35" t="n">
+        <v>48424916200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20070300</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1661799000000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2652000000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20070400</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20070500</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20070600</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1661799000000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1660660000000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1139000000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.575448225744402</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.768227827016889</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6201934792432118</v>
+      </c>
+      <c r="P39" t="n">
+        <v>12.76111893664226</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.5455468563793007</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20070700</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>145000000000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150000000000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1660660000000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1642079000000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-18581000000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6437622800</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12801000000</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>-701000000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.086390488381492</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.516313087641564</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.04916533336684165</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.301060431585421</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0930194706879845</v>
+      </c>
+      <c r="R40" t="n">
+        <v>138562377200</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-24238622800</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-24238622800</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-23537622800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20070800</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1642079000000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1624404000000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-17675000000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1732000000</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-2562000000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7808222625285763</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.6824631836796503</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.02470883484085183</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-1.706760175711744</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.4639622210057633</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-1732000000</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-1732000000</v>
+      </c>
+      <c r="U41" t="n">
+        <v>830000000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20070900</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>175000000000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>155000000000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1624404000000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1642285000000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17881000000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10875237800</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6001000000</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>-26054000000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.5632536362400912</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.384137043556206</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.68510545953476</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.032944016248662</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2799343199681946</v>
+      </c>
+      <c r="R42" t="n">
+        <v>164124762200</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3123762200</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3123762200</v>
+      </c>
+      <c r="U42" t="n">
+        <v>29177762200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20071000</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1642285000000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1641080000000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1205000000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1201000000</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>-40000000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.046480713249013</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.437158088986327</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-3.233962947899218</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10.77148962157504</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.05167485515584625</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-1201000000</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-1201000000</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-1161000000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20071100</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20071200</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20071300</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1641080000000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1653555000000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12475000000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>-275000000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.9304001033515519</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.04003802420691794</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8178389810078175</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-2.868593479223176</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.09311397048957253</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="T46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="U46" t="n">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20071400</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>135000000000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>180000000000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-45000000000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1653555000000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1627709000000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-25846000000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6657527900</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1732000000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>59556734928</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2114000000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.346659218604838</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.137864497775151</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.1020691934908161</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.268636904522815</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-0.3107472752416666</v>
+      </c>
+      <c r="R47" t="n">
+        <v>128342472100</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-53389527900</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-112946262828</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-115060262828</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20071500</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>94000000000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>56000000000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1627709000000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1740455000000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>112746000000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7457547200</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12801000000</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9001927860159984</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8423227005985889</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.210777523318008</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.893062925307842</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.1871688765757988</v>
+      </c>
+      <c r="R48" t="n">
+        <v>86542452800</v>
+      </c>
+      <c r="S48" t="n">
+        <v>17741452800</v>
+      </c>
+      <c r="T48" t="n">
+        <v>17741452800</v>
+      </c>
+      <c r="U48" t="n">
+        <v>17731452800</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20071600</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>209000000000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>184000000000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1740455000000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1807305000000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>66850000000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>18724230800</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12148000000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-26353000000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.3425422915885264</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.5061907762122538</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.5868011479533544</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-3.07143397244584</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.2812465031941732</v>
+      </c>
+      <c r="R49" t="n">
+        <v>190275769200</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2674769200</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-9473230800</v>
+      </c>
+      <c r="U49" t="n">
+        <v>16879769200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20071700</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1807305000000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1812801000000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5496000000</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1199000000</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2840978788711261</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.2344075126535486</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.4663687257759945</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.01321161441250016</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.4258371810480386</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-1199000000</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-1199000000</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-1199000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20071800</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20071900</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20072000</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1812801000000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1817270000000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4469000000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>-3550000000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8408085840118025</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.03345770878211009</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.04955514732708439</v>
+      </c>
+      <c r="P53" t="n">
+        <v>9.358729255617085</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-0.1145720319800436</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3550000000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20072100</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>125000000000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>170000000000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-45000000000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1817270000000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1794448000000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-22822000000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5332930800</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1734000000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>29183280071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1616000000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1670468868134096</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.5945306672427577</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.717915748058488</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-4.551414524024201</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.7415134041489883</v>
+      </c>
+      <c r="R54" t="n">
+        <v>119667069200</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-52066930800</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-81250210871</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-79634210871</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20072200</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1794448000000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1777180000000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-17268000000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6001000000</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>-1339000000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5751390254972526</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.6167461824244995</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.0721124528779416</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.499060081496248</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.1576805741719043</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-6001000000</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-6001000000</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-4662000000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20072300</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>185000000000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>153000000000</v>
+      </c>
+      <c r="E56" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1777180000000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1821824000000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>44644000000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16277175800</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2401000000</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>-1.233635386138733</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-1.311434002946211</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-1.5487197814543</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-4.720808366580733</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.2947976093922036</v>
+      </c>
+      <c r="R56" t="n">
+        <v>168722824200</v>
+      </c>
+      <c r="S56" t="n">
+        <v>13321824200</v>
+      </c>
+      <c r="T56" t="n">
+        <v>13321824200</v>
+      </c>
+      <c r="U56" t="n">
+        <v>13321824200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20072400</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1821824000000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1825498000000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3674000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1732000000</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>-0.6223250256536601</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.6875838878253876</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.6316771683602186</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-6.784552766329935</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.2637965694370324</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-1732000000</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-1732000000</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-1732000000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20072500</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20072600</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
         <v>20072700</v>
       </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>1825498000000</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G60" t="n">
         <v>1830546000000</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H60" t="n">
         <v>5048000000</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>8801000000</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
         <v>0.7385469044350499</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N60" t="n">
         <v>0.4343630519790444</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O60" t="n">
         <v>1.479506711433924</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P60" t="n">
         <v>8.543552305640244</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q60" t="n">
         <v>-0.8055136709291276</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
         <v>-8801000000</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T60" t="n">
         <v>-8801000000</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U60" t="n">
         <v>-8801000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20072800</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>150000000000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-30000000000</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>6398553400</v>
+      </c>
+      <c r="J61" t="n">
+        <v>12825000000</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>-0.648367964841854</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.7745740692941615</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-1.492903358550323</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-4.196142643056017</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.08549030721234582</v>
+      </c>
+      <c r="R61" t="n">
+        <v>113601446600</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-49223553400</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-49223553400</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-49223553400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20072900</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20073000</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>186000000000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-21000000000</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>12161641600</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>152838358400</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-34911641600</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-34911641600</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-34911641600</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20073100</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>151000000000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>22273141400</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8825000000</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>173726858600</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13901858600</v>
+      </c>
+      <c r="T64" t="n">
+        <v>13901858600</v>
+      </c>
+      <c r="U64" t="n">
+        <v>13901858600</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20080100</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20080200</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20080300</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20080400</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>145000000000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-25000000000</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>6238188600</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1225000000</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>113761811400</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-32463188600</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-32463188600</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-32463188600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20080500</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6025000000</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-6025000000</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-6025000000</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-6025000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,45 +497,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>future_swap</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>^GSPC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DJIA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>CL=F</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>TSLA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DX-Y.NYB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>issues_after_past_fed_soma</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>issues_maturity_fedsoma_fedinv</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>issues_maturity_fedsoma_fedinv_mbs</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>issues_maturity_fedsoma_fedinv_mbs_swap</t>
         </is>
@@ -543,10 +548,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20070100</v>
+        <v>20053000</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -558,225 +563,229 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1722032000000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-65285000000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2401000000</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>-1470000000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5013029553568004</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.301051082610334</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-1.079318030945965</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.676818678583795</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.1950944066095202</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-931000000</v>
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20070200</v>
+        <v>20053100</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>152000000000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23000000000</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1659147000000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2400000000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13530083800</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3601000000</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>-42556000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.4501120620449166</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3562117200229949</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.382602448310755</v>
-      </c>
-      <c r="P3" t="n">
-        <v>7.288701470384248</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1235231546034148</v>
-      </c>
-      <c r="R3" t="n">
-        <v>161469916200</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>48424916200</v>
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20070300</v>
+        <v>20060100</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>147000000000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>97000000000</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50000000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1659147000000</v>
+        <v>1449129000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1661799000000</v>
+        <v>1394436000000</v>
       </c>
       <c r="H4" t="n">
-        <v>2652000000</v>
+        <v>-54693000000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15432490200</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6500000000</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0.3758061381508548</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3626650028272272</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.5396263741740329</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.354309508850524</v>
+      </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0.5289894475309557</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>131567509800</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>28067509800</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>28067509800</v>
+      </c>
+      <c r="V4" t="n">
+        <v>28067509800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20070400</v>
+        <v>20060200</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>230000000000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>150000000000</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>80000000000</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1394436000000</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1455494000000</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>61058000000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6713800200</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7000000000</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>-179000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2684000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8186586851514167</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.046147386101197</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.1406160006376423</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1.84866187567643</v>
+      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-0.1533130943309479</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>223286199800</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>66286199800</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>66286199800</v>
+      </c>
+      <c r="V5" t="n">
+        <v>66465199800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20070500</v>
+        <v>20060300</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -788,172 +797,191 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1455494000000</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1431462000000</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-24032000000</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3000000000</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>-449000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-671000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.356934723716692</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.035135905541504</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.716773532003923</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1576391052740307</v>
+      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-0.3997124022427621</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-3000000000</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-3000000000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-2551000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20070600</v>
+        <v>20060400</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>222000000000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>146000000000</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>76000000000</v>
       </c>
       <c r="F7" t="n">
-        <v>1661799000000</v>
+        <v>1431462000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1660660000000</v>
+        <v>1501733000000</v>
       </c>
       <c r="H7" t="n">
-        <v>-1139000000</v>
+        <v>70271000000</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10194000000</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2100000000</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-500000000</v>
+        <v>20000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1.575448225744402</v>
+        <v>-5300000000</v>
       </c>
       <c r="N7" t="n">
-        <v>1.768227827016889</v>
+        <v>-0.3380946963307035</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6201934792432118</v>
+        <v>0.045487167338784</v>
       </c>
       <c r="P7" t="n">
-        <v>12.76111893664226</v>
+        <v>1.305765952538564</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.5455468563793007</v>
+        <v>-2.087923876016355</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-0.6165212453787169</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211806000000</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>63706000000</v>
       </c>
       <c r="U7" t="n">
-        <v>500000000</v>
+        <v>63706000000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>63686000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20070700</v>
+        <v>20060500</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>145000000000</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>150000000000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-5000000000</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1660660000000</v>
+        <v>1501733000000</v>
       </c>
       <c r="G8" t="n">
-        <v>1642079000000</v>
+        <v>1494494000000</v>
       </c>
       <c r="H8" t="n">
-        <v>-18581000000</v>
+        <v>-7239000000</v>
       </c>
       <c r="I8" t="n">
-        <v>6437622800</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12801000000</v>
+        <v>4500000000</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-701000000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-1.086390488381492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.516313087641564</v>
+        <v>2.578506868808448</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.04916533336684165</v>
+        <v>3.089638601145436</v>
       </c>
       <c r="P8" t="n">
-        <v>1.301060431585421</v>
+        <v>0.3214543959248857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0930194706879845</v>
+        <v>2.424128270608282</v>
       </c>
       <c r="R8" t="n">
-        <v>138562377200</v>
+        <v>0.2687638432622326</v>
       </c>
       <c r="S8" t="n">
-        <v>-24238622800</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-24238622800</v>
+        <v>-4500000000</v>
       </c>
       <c r="U8" t="n">
-        <v>-23537622800</v>
+        <v>-4500000000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-4500000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20070800</v>
+        <v>20060600</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -965,118 +993,96 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1642079000000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1624404000000</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-17675000000</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1732000000</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>-2562000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7808222625285763</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.6824631836796503</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-0.02470883484085183</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-1.706760175711744</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.4639622210057633</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>-1732000000</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-1732000000</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>830000000</v>
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20070900</v>
+        <v>20060700</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>155000000000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20000000000</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1624404000000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1642285000000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17881000000</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10875237800</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6001000000</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>-26054000000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.5632536362400912</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-1.384137043556206</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.68510545953476</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.032944016248662</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.2799343199681946</v>
-      </c>
-      <c r="R10" t="n">
-        <v>164124762200</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3123762200</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3123762200</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>29177762200</v>
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20071000</v>
+        <v>20060800</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1091,109 +1097,125 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1642285000000</v>
+        <v>1494494000000</v>
       </c>
       <c r="G11" t="n">
-        <v>1641080000000</v>
+        <v>1520809000000</v>
       </c>
       <c r="H11" t="n">
-        <v>-1205000000</v>
+        <v>26315000000</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1201000000</v>
+        <v>5000000000</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>-40000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.046480713249013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1.437158088986327</v>
+        <v>1.201903856236637</v>
       </c>
       <c r="O11" t="n">
-        <v>-3.233962947899218</v>
+        <v>1.694488950216807</v>
       </c>
       <c r="P11" t="n">
-        <v>10.77148962157504</v>
+        <v>-2.207558830888691</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.05167485515584625</v>
+        <v>6.992384087663221</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-0.3304416634916914</v>
       </c>
       <c r="S11" t="n">
-        <v>-1201000000</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1201000000</v>
+        <v>-5000000000</v>
       </c>
       <c r="U11" t="n">
-        <v>-1161000000</v>
+        <v>-5000000000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-5000000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20071100</v>
+        <v>20060900</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>230000000000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>195000000000</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>35000000000</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1520809000000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1535311000000</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>14502000000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6470094200</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2000000000</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>-2500000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-2505000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.7845455915125022</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-1.093506158412695</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-3.558347898782571</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.9840320745420919</v>
+      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-0.3104657562713538</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>223529905800</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>26529905800</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>26529905800</v>
+      </c>
+      <c r="V12" t="n">
+        <v>29029905800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20071200</v>
+        <v>20061000</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1205,416 +1227,427 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1535311000000</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1504569000000</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-30742000000</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2750000000</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>55000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-222000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.5302773828749184</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-1.035930133287771</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.948051948051948</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8.507084072930574</v>
+      </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0.3733284343173852</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-2750000000</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-2750000000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-2805000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20071300</v>
+        <v>20061100</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>25000000</v>
+        <v>217000000000</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>153000000000</v>
       </c>
       <c r="E14" t="n">
-        <v>25000000</v>
+        <v>64000000000</v>
       </c>
       <c r="F14" t="n">
-        <v>1641080000000</v>
+        <v>1504569000000</v>
       </c>
       <c r="G14" t="n">
-        <v>1653555000000</v>
+        <v>1550414000000</v>
       </c>
       <c r="H14" t="n">
-        <v>12475000000</v>
+        <v>45845000000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7193692400</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>6500000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>92706000000</v>
+      </c>
       <c r="L14" t="n">
-        <v>-275000000</v>
+        <v>-91923000000</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.9304001033515519</v>
+        <v>-116523000000</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04003802420691794</v>
+        <v>-6.020105238565734</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8178389810078175</v>
+        <v>-7.083875661429725</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.868593479223176</v>
+        <v>1.688410961462775</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.09311397048957253</v>
+        <v>-5.272674341448116</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.8013365613557695</v>
       </c>
       <c r="S14" t="n">
-        <v>25000000</v>
+        <v>209806307600</v>
       </c>
       <c r="T14" t="n">
-        <v>25000000</v>
+        <v>50306307600</v>
       </c>
       <c r="U14" t="n">
-        <v>300000000</v>
+        <v>-42399692400</v>
+      </c>
+      <c r="V14" t="n">
+        <v>49523307600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20071400</v>
+        <v>20061200</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>135000000000</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>180000000000</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-45000000000</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1653555000000</v>
+        <v>1550414000000</v>
       </c>
       <c r="G15" t="n">
-        <v>1627709000000</v>
+        <v>1541349000000</v>
       </c>
       <c r="H15" t="n">
-        <v>-25846000000</v>
+        <v>-9065000000</v>
       </c>
       <c r="I15" t="n">
-        <v>6657527900</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1732000000</v>
-      </c>
-      <c r="K15" t="n">
-        <v>59556734928</v>
-      </c>
+        <v>4000000000</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>2114000000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.346659218604838</v>
-      </c>
+        <v>5000000</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>2.137864497775151</v>
+        <v>1.276764888727067</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.1020691934908161</v>
+        <v>1.860405036740665</v>
       </c>
       <c r="P15" t="n">
-        <v>1.268636904522815</v>
+        <v>-8.990619063534911</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.3107472752416666</v>
+        <v>-3.832652812101403</v>
       </c>
       <c r="R15" t="n">
-        <v>128342472100</v>
+        <v>0.6094374060215555</v>
       </c>
       <c r="S15" t="n">
-        <v>-53389527900</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-112946262828</v>
+        <v>-4000000000</v>
       </c>
       <c r="U15" t="n">
-        <v>-115060262828</v>
+        <v>-4000000000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-4005000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20071500</v>
+        <v>20061300</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>94000000000</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>56000000000</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>38000000000</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1627709000000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1740455000000</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>112746000000</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7457547200</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12801000000</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9001927860159984</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.8423227005985889</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.210777523318008</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.893062925307842</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.1871688765757988</v>
-      </c>
-      <c r="R16" t="n">
-        <v>86542452800</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>17741452800</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>17741452800</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>17731452800</v>
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20071600</v>
+        <v>20061400</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>209000000000</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>184000000000</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1740455000000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1807305000000</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>66850000000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>18724230800</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3601000000</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12148000000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-26353000000</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-0.3425422915885264</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-0.5061907762122538</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-0.5868011479533544</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-3.07143397244584</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.2812465031941732</v>
-      </c>
-      <c r="R17" t="n">
-        <v>190275769200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>2674769200</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9473230800</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>16879769200</v>
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20071700</v>
+        <v>20061500</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>92000000000</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>24000000000</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>68000000000</v>
       </c>
       <c r="F18" t="n">
-        <v>1807305000000</v>
+        <v>1541349000000</v>
       </c>
       <c r="G18" t="n">
-        <v>1812801000000</v>
+        <v>1597571000000</v>
       </c>
       <c r="H18" t="n">
-        <v>5496000000</v>
+        <v>56222000000</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1308000000</v>
       </c>
       <c r="J18" t="n">
-        <v>1199000000</v>
+        <v>4401000000</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.2840978788711261</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>-0.2344075126535486</v>
+        <v>0.8444240424887671</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.4663687257759945</v>
+        <v>0.623738255925753</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01321161441250016</v>
+        <v>1.859556457521444</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.4258371810480386</v>
+        <v>6.060209464994879</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-0.6591815982988862</v>
       </c>
       <c r="S18" t="n">
-        <v>-1199000000</v>
+        <v>90692000000</v>
       </c>
       <c r="T18" t="n">
-        <v>-1199000000</v>
+        <v>62291000000</v>
       </c>
       <c r="U18" t="n">
-        <v>-1199000000</v>
+        <v>62291000000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>62291000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20071800</v>
+        <v>20061600</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>205000000000</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>195000000000</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1597571000000</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1588615000000</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-8956000000</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6771856400</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4140000000</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-5000000</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.857230991496327</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.001089080557835</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.321189279516414</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.8667312094534071</v>
+      </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.2899738881279159</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>198228143600</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-911856400</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-911856400</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-920856400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20071900</v>
+        <v>20061700</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1626,174 +1659,195 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1588615000000</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1565306000000</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-23309000000</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+        <v>25000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18607000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-142000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-475000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.3587223877957163</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.6470479762003841</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.004194270226732</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.9780171234102023</v>
+      </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.2061690271440812</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-25000000</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-18632000000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-18490000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20072000</v>
+        <v>20061800</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>238000000000</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>169000000000</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>69000000000</v>
       </c>
       <c r="F21" t="n">
-        <v>1812801000000</v>
+        <v>1565306000000</v>
       </c>
       <c r="G21" t="n">
-        <v>1817270000000</v>
+        <v>1634655000000</v>
       </c>
       <c r="H21" t="n">
-        <v>4469000000</v>
+        <v>69349000000</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17645591700</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4401000000</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-3550000000</v>
+        <v>-72973000000</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8408085840118025</v>
+        <v>-117660000000</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03345770878211009</v>
+        <v>0.0596490153701297</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04955514732708439</v>
+        <v>-0.1518645580447827</v>
       </c>
       <c r="P21" t="n">
-        <v>9.358729255617085</v>
+        <v>-1.157901161595395</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.1145720319800436</v>
+        <v>1.213364301626371</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.2678146909065761</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>220354408300</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>46953408300</v>
       </c>
       <c r="U21" t="n">
-        <v>3550000000</v>
+        <v>46953408300</v>
+      </c>
+      <c r="V21" t="n">
+        <v>119926408300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20072100</v>
+        <v>20061900</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>125000000000</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>170000000000</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-45000000000</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1817270000000</v>
+        <v>1634655000000</v>
       </c>
       <c r="G22" t="n">
-        <v>1794448000000</v>
+        <v>1635527000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-22822000000</v>
+        <v>872000000</v>
       </c>
       <c r="I22" t="n">
-        <v>5332930800</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1734000000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>29183280071</v>
-      </c>
+        <v>3601000000</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-1616000000</v>
+        <v>-2580000000</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1670468868134096</v>
+        <v>-2880000000</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5945306672427577</v>
+        <v>-0.5604608949275374</v>
       </c>
       <c r="O22" t="n">
-        <v>2.717915748058488</v>
+        <v>-0.795932854122987</v>
       </c>
       <c r="P22" t="n">
-        <v>-4.551414524024201</v>
+        <v>2.152191080860247</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.7415134041489883</v>
+        <v>-0.3021384180253002</v>
       </c>
       <c r="R22" t="n">
-        <v>119667069200</v>
+        <v>0.205301356390781</v>
       </c>
       <c r="S22" t="n">
-        <v>-52066930800</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-81250210871</v>
+        <v>-3601000000</v>
       </c>
       <c r="U22" t="n">
-        <v>-79634210871</v>
+        <v>-3601000000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-1021000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20072200</v>
+        <v>20062000</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1805,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1794448000000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1777180000000</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-17268000000</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1820,27 +1874,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>-1339000000</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5751390254972526</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.6167461824244995</v>
-      </c>
-      <c r="O23" t="n">
-        <v>-0.0721124528779416</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.499060081496248</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.1576805741719043</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
         <v>0</v>
       </c>
@@ -1848,73 +1888,67 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1339000000</v>
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20072300</v>
+        <v>20062100</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>185000000000</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>153000000000</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>32000000000</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1777180000000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1821824000000</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>44644000000</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16277175800</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>-1.233635386138733</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-1.311434002946211</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-1.5487197814543</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-4.720808366580733</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-0.2947976093922036</v>
-      </c>
-      <c r="R24" t="n">
-        <v>168722824200</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>15722824200</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>15722824200</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>15722824200</v>
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20072400</v>
+        <v>20062200</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -1929,107 +1963,129 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1821824000000</v>
+        <v>1635527000000</v>
       </c>
       <c r="G25" t="n">
-        <v>1825498000000</v>
+        <v>1626909000000</v>
       </c>
       <c r="H25" t="n">
-        <v>3674000000</v>
+        <v>-8618000000</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+        <v>12801000000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>43650000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-1075000000</v>
+      </c>
       <c r="M25" t="n">
-        <v>-0.6223250256536601</v>
+        <v>-1075000000</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.6875838878253876</v>
+        <v>0.6502064262599703</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6316771683602186</v>
+        <v>0.5934642364777378</v>
       </c>
       <c r="P25" t="n">
-        <v>-6.784552766329935</v>
+        <v>0.153770816471319</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.2637965694370324</v>
+        <v>-0.6580346026818601</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-0.5938990470053808</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-12801000000</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-56451000000</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-55376000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20072500</v>
+        <v>20062300</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>190000000000</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>185000000000</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5000000000</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1626909000000</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1612877000000</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-14032000000</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5704144800</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1731000000</v>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-14000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-14000000</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.4278819845653216</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5013062947638903</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.212383737536827</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.7468386529102113</v>
+      </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-0.3610837439586853</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>184295855200</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-2435144800</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-2435144800</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-2421144800</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20072600</v>
+        <v>20062400</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2041,154 +2097,2659 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1612877000000</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1586573000000</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-26304000000</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6001000000</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-864000000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-2508000000</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-2.599536458904117</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-2.732124893187729</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.9002265447400821</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-4.117256069655388</v>
+      </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.4758939241101803</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>-6001000000</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>-6001000000</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-5137000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20072700</v>
+        <v>20062500</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>211000000000</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146000000000</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>65000000000</v>
       </c>
       <c r="F28" t="n">
-        <v>1825498000000</v>
+        <v>1586573000000</v>
       </c>
       <c r="G28" t="n">
-        <v>1830546000000</v>
+        <v>1638128000000</v>
       </c>
       <c r="H28" t="n">
-        <v>5048000000</v>
+        <v>51555000000</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4249636400</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1201000000</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-46293000000</v>
+      </c>
       <c r="M28" t="n">
-        <v>0.7385469044350499</v>
+        <v>-86601000000</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4343630519790444</v>
+        <v>1.097286501971252</v>
       </c>
       <c r="O28" t="n">
-        <v>1.479506711433924</v>
+        <v>1.181382018146926</v>
       </c>
       <c r="P28" t="n">
-        <v>8.543552305640244</v>
+        <v>-6.202367037245382</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.8055136709291276</v>
+        <v>2.633427056123663</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.2879460977458528</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>206750363600</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>59549363600</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>59549363600</v>
+      </c>
+      <c r="V28" t="n">
+        <v>105842363600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>20062600</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1638128000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9120000000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1731000000</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>-1980000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-5600000000</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-2.431015297556918</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-2.847116721616904</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.816328719361535</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-2.637768095618265</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.07190518327827917</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>18269000000</v>
+      </c>
+      <c r="U29" t="n">
+        <v>18269000000</v>
+      </c>
+      <c r="V29" t="n">
+        <v>20249000000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20062700</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20062800</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20062900</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-2558000000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8801000000</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>-100000000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.463926539198626</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.306932398326642</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.685993729666588</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5.119656644574982</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.04102658002804487</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-8801000000</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-8801000000</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-8701000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20063000</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>331000000000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>248000000000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>83000000000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>77342000000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29235095200</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1735000000</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>295000000</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>1.542523427359198</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8508796723165883</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.052469987647463</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7.00050501816319</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.154005670974298</v>
+      </c>
+      <c r="S33" t="n">
+        <v>301764904800</v>
+      </c>
+      <c r="T33" t="n">
+        <v>52029904800</v>
+      </c>
+      <c r="U33" t="n">
+        <v>52029904800</v>
+      </c>
+      <c r="V33" t="n">
+        <v>51734904800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20070100</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-65285000000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2401000000</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>-1470000000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-2953000000</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5013029553568004</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.301051082610334</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-1.079318030945965</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.676818678583795</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.1950944066095202</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-2401000000</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-2401000000</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-931000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20070200</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>175000000000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>152000000000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23000000000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13530083800</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>-42556000000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-71373000000</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.4501120620449166</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.3562117200229949</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.382602448310755</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>7.288701470384248</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1235231546034148</v>
+      </c>
+      <c r="S35" t="n">
+        <v>161469916200</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5868916200</v>
+      </c>
+      <c r="U35" t="n">
+        <v>5868916200</v>
+      </c>
+      <c r="V35" t="n">
+        <v>48424916200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20070300</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1661799000000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2652000000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20070400</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20070500</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20070600</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1661799000000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1660660000000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1139000000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.575448225744402</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.768227827016889</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6201934792432118</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>12.76111893664226</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.5455468563793007</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20070700</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>145000000000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150000000000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1660660000000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1642079000000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-18581000000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6437622800</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12801000000</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>-701000000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-795000000</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.086390488381492</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1.516313087641564</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.04916533336684165</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.301060431585421</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0930194706879845</v>
+      </c>
+      <c r="S40" t="n">
+        <v>138562377200</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-24238622800</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-24238622800</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-23537622800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20070800</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1642079000000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1624404000000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-17675000000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1732000000</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-2562000000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-3242000000</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.7808222625285763</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.6824631836796503</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.02470883484085183</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.706760175711744</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.4639622210057633</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-1732000000</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-1732000000</v>
+      </c>
+      <c r="V41" t="n">
+        <v>830000000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20070900</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>175000000000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>155000000000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1624404000000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1642285000000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17881000000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10875237800</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6001000000</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>-26054000000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-54218000000</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.5632536362400912</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-1.384137043556206</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.68510545953476</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.032944016248662</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2799343199681946</v>
+      </c>
+      <c r="S42" t="n">
+        <v>164124762200</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3123762200</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3123762200</v>
+      </c>
+      <c r="V42" t="n">
+        <v>29177762200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20071000</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1642285000000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1641080000000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1205000000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1201000000</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>-40000000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-40000000</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.046480713249013</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.437158088986327</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-3.233962947899218</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>10.77148962157504</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.05167485515584625</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-1201000000</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-1201000000</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-1161000000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20071100</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20071200</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20071300</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1641080000000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1653555000000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12475000000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>-275000000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-275000000</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.9304001033515519</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.04003802420691794</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8178389810078175</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-2.868593479223176</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.09311397048957253</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="U46" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="V46" t="n">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20071400</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>135000000000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>180000000000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-45000000000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1653555000000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1627709000000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-25846000000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6657527900</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1732000000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>59556734928</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2114000000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-94000000</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.346659218604838</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.137864497775151</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.1020691934908161</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.268636904522815</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.3107472752416666</v>
+      </c>
+      <c r="S47" t="n">
+        <v>128342472100</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-53389527900</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-112946262828</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-115060262828</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20071500</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>94000000000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>56000000000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1627709000000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1740455000000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>112746000000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7457547200</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12801000000</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>0.9001927860159984</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8423227005985889</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.210777523318008</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.893062925307842</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.1871688765757988</v>
+      </c>
+      <c r="S48" t="n">
+        <v>86542452800</v>
+      </c>
+      <c r="T48" t="n">
+        <v>17741452800</v>
+      </c>
+      <c r="U48" t="n">
+        <v>17741452800</v>
+      </c>
+      <c r="V48" t="n">
+        <v>17731452800</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20071600</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>209000000000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>184000000000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1740455000000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1807305000000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>66850000000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>18724230800</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12148000000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-26353000000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-45880000000</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.3425422915885264</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.5061907762122538</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.5868011479533544</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-3.07143397244584</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.2812465031941732</v>
+      </c>
+      <c r="S49" t="n">
+        <v>190275769200</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2674769200</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-9473230800</v>
+      </c>
+      <c r="V49" t="n">
+        <v>16879769200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20071700</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1807305000000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1812801000000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5496000000</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1199000000</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>0.2840978788711261</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.2344075126535486</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.4663687257759945</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.01321161441250016</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.4258371810480386</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-1199000000</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-1199000000</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-1199000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20071800</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20071900</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20072000</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1812801000000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1817270000000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4469000000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>-3550000000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-3550000000</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8408085840118025</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.03345770878211009</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.04955514732708439</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>9.358729255617085</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.1145720319800436</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3550000000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20072100</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>125000000000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>170000000000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-45000000000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1817270000000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1794448000000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-22822000000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5332930800</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1734000000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>29183280071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1616000000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-2208000000</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1670468868134096</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.5945306672427577</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.717915748058488</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-4.551414524024201</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.7415134041489883</v>
+      </c>
+      <c r="S54" t="n">
+        <v>119667069200</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-52066930800</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-81250210871</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-79634210871</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20072200</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1794448000000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1777180000000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-17268000000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>-1339000000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-2516000000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5751390254972526</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.6167461824244995</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.0721124528779416</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.499060081496248</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.1576805741719043</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1339000000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20072300</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>185000000000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>153000000000</v>
+      </c>
+      <c r="E56" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1777180000000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1821824000000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>44644000000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16277175800</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>-3756000000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-4258000000</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-1.233635386138733</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-1.311434002946211</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-1.5487197814543</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-4.720808366580733</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.2947976093922036</v>
+      </c>
+      <c r="S56" t="n">
+        <v>168722824200</v>
+      </c>
+      <c r="T56" t="n">
+        <v>15722824200</v>
+      </c>
+      <c r="U56" t="n">
+        <v>15722824200</v>
+      </c>
+      <c r="V56" t="n">
+        <v>19478824200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20072400</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1821824000000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1825498000000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3674000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>-20000000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-20000000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.6223250256536601</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.6875838878253876</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.6316771683602186</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-6.784552766329935</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.2637965694370324</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20072500</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20072600</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20072700</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1825498000000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1830546000000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5048000000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>0.7385469044350499</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.4343630519790444</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.479506711433924</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>8.543552305640244</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.8055136709291276</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
         <v>20072800</v>
       </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
         <v>120000000000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D61" t="n">
         <v>150000000000</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E61" t="n">
         <v>-30000000000</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
+      <c r="F61" t="n">
+        <v>1830546000000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1795511000000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-35035000000</v>
+      </c>
+      <c r="I61" t="n">
         <v>6398553400</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="N61" t="n">
         <v>-0.648367964841854</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O61" t="n">
         <v>-0.7745740692941615</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P61" t="n">
         <v>-1.492903358550323</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q61" t="n">
         <v>-4.196142643056017</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R61" t="n">
         <v>0.08549030721234582</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S61" t="n">
         <v>113601446600</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T61" t="n">
         <v>-36398553400</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U61" t="n">
         <v>-36398553400</v>
       </c>
-      <c r="U29" t="n">
-        <v>-36398553400</v>
+      <c r="V61" t="n">
+        <v>-35898553400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20072900</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1795511000000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-3077000000</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12825000000</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.239456881251422</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.6074289308002935</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.3655007858982617</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.506995011138408</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-0.5333333333333333</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-12825000000</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-12825000000</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-12583000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20073000</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>186000000000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-21000000000</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-25093000000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12161641600</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>-10275000000</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-15378000000</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.3781212301098812</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.8568146695595794</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-2.399422488464146</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.7809136503486223</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.3536239092733198</v>
+      </c>
+      <c r="S63" t="n">
+        <v>152838358400</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-33161641600</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-33161641600</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-22886641600</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20073100</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>151000000000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>22273141400</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>0.7613676055630426</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.4342023123486262</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.3736027899830139</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-3.744553166254125</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.6033156221018349</v>
+      </c>
+      <c r="S64" t="n">
+        <v>173726858600</v>
+      </c>
+      <c r="T64" t="n">
+        <v>20976858600</v>
+      </c>
+      <c r="U64" t="n">
+        <v>20976858600</v>
+      </c>
+      <c r="V64" t="n">
+        <v>20976858600</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20080100</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20080200</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20080300</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8825000000</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-8825000000</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-8825000000</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-8825000000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20080400</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>145000000000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-25000000000</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>6238188600</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>-92000000</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>113761811400</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-31238188600</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-31238188600</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-31238188600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20080500</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1225000000</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>-1443000000</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-1225000000</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-1225000000</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-1225000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>179000000000</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-14000000000</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>11550602300</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6025000000</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>-10346000000</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>153449397700</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-31575602300</v>
+      </c>
+      <c r="U70" t="n">
+        <v>-31575602300</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-31575602300</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20080700</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>-1750000000</v>
+      </c>
+      <c r="U71" t="n">
+        <v>-1750000000</v>
+      </c>
+      <c r="V71" t="n">
+        <v>-1750000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4384,9 +4384,15 @@
       <c r="E64" t="n">
         <v>45000000000</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1763090000000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-4251000000</v>
+      </c>
       <c r="I64" t="n">
         <v>22273141400</v>
       </c>
@@ -4544,11 +4550,21 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>0.7143592710008744</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.8894477775321663</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.175003051757812</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.742754075482448</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.01070205042633099</v>
+      </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
@@ -4752,6 +4768,144 @@
         <v>-1750000000</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20080800</v>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20080900</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20081000</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,10 +548,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20053000</v>
+        <v>20061000</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -563,229 +563,245 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1535311000000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1504569000000</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-30742000000</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2750000000</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>55000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-222000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.5302773828749184</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.035930133287771</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.714285317953531</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8.507084072930574</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.3733284343173852</v>
+      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-2750000000</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-2750000000</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-2805000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20053100</v>
+        <v>20061100</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>217000000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>153000000000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64000000000</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1504569000000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1550414000000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>45845000000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7193692400</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>6500000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>92706000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-91923000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-116523000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-6.020105238565734</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-7.083875661429725</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-8.339724504496786</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-5.272674341448116</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8013365613557695</v>
+      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>209806307600</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>50306307600</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-42399692400</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>49523307600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20060100</v>
+        <v>20061200</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>147000000000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>97000000000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50000000000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1449129000000</v>
+        <v>1550414000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1394436000000</v>
+        <v>1541349000000</v>
       </c>
       <c r="H4" t="n">
-        <v>-54693000000</v>
+        <v>-9065000000</v>
       </c>
       <c r="I4" t="n">
-        <v>15432490200</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>0.3758061381508548</v>
+        <v>1.276764888727067</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3626650028272272</v>
+        <v>1.860405036740665</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5396263741740329</v>
+        <v>-0.2206338520627508</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.354309508850524</v>
+        <v>-3.832652812101403</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.5289894475309557</v>
+        <v>0.6094374060215555</v>
       </c>
       <c r="S4" t="n">
-        <v>131567509800</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>28067509800</v>
+        <v>-4000000000</v>
       </c>
       <c r="U4" t="n">
-        <v>28067509800</v>
+        <v>-4000000000</v>
       </c>
       <c r="V4" t="n">
-        <v>28067509800</v>
+        <v>-4005000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20060200</v>
+        <v>20061300</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>230000000000</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>150000000000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>80000000000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1394436000000</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1455494000000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>61058000000</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6713800200</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7000000000</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>-179000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-2684000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.8186586851514167</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.046147386101197</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.1406160006376423</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-1.84866187567643</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.1533130943309479</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>223286199800</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>66286199800</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>66286199800</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>66465199800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20060300</v>
+        <v>20061400</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -797,191 +813,177 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1455494000000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1431462000000</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-24032000000</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3000000000</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>-449000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-671000000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.356934723716692</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.035135905541504</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.716773532003923</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.1576391052740307</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.3997124022427621</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-3000000000</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-3000000000</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-2551000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20060400</v>
+        <v>20061500</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>222000000000</v>
+        <v>92000000000</v>
       </c>
       <c r="D7" t="n">
-        <v>146000000000</v>
+        <v>24000000000</v>
       </c>
       <c r="E7" t="n">
-        <v>76000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="F7" t="n">
-        <v>1431462000000</v>
+        <v>1541349000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1501733000000</v>
+        <v>1597571000000</v>
       </c>
       <c r="H7" t="n">
-        <v>70271000000</v>
+        <v>56222000000</v>
       </c>
       <c r="I7" t="n">
-        <v>10194000000</v>
+        <v>1308000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2100000000</v>
+        <v>4401000000</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-5300000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>-0.3380946963307035</v>
+        <v>0.8444240424887671</v>
       </c>
       <c r="O7" t="n">
-        <v>0.045487167338784</v>
+        <v>0.623738255925753</v>
       </c>
       <c r="P7" t="n">
-        <v>1.305765952538564</v>
+        <v>4.246458038116906</v>
       </c>
       <c r="Q7" t="n">
-        <v>-2.087923876016355</v>
+        <v>6.060209464994879</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.6165212453787169</v>
+        <v>-0.6591815982988862</v>
       </c>
       <c r="S7" t="n">
-        <v>211806000000</v>
+        <v>90692000000</v>
       </c>
       <c r="T7" t="n">
-        <v>63706000000</v>
+        <v>62291000000</v>
       </c>
       <c r="U7" t="n">
-        <v>63706000000</v>
+        <v>62291000000</v>
       </c>
       <c r="V7" t="n">
-        <v>63686000000</v>
+        <v>62291000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20060500</v>
+        <v>20061600</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205000000000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>195000000000</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F8" t="n">
-        <v>1501733000000</v>
+        <v>1597571000000</v>
       </c>
       <c r="G8" t="n">
-        <v>1494494000000</v>
+        <v>1588615000000</v>
       </c>
       <c r="H8" t="n">
-        <v>-7239000000</v>
+        <v>-8956000000</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6771856400</v>
       </c>
       <c r="J8" t="n">
-        <v>4500000000</v>
+        <v>4140000000</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>9000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-5000000</v>
+      </c>
       <c r="N8" t="n">
-        <v>2.578506868808448</v>
+        <v>1.857230991496327</v>
       </c>
       <c r="O8" t="n">
-        <v>3.089638601145436</v>
+        <v>2.001089080557835</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3214543959248857</v>
+        <v>3.400815552433555</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.424128270608282</v>
+        <v>-0.8667312094534071</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2687638432622326</v>
+        <v>0.2899738881279159</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>198228143600</v>
       </c>
       <c r="T8" t="n">
-        <v>-4500000000</v>
+        <v>-911856400</v>
       </c>
       <c r="U8" t="n">
-        <v>-4500000000</v>
+        <v>-911856400</v>
       </c>
       <c r="V8" t="n">
-        <v>-4500000000</v>
+        <v>-920856400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20060600</v>
+        <v>20061700</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -993,96 +995,126 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1588615000000</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1565306000000</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-23309000000</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+        <v>25000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18607000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-142000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-475000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3587223877957163</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.6470479762003841</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-1.1073081472801</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9780171234102023</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2061690271440812</v>
+      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-25000000</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-18632000000</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-18490000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20060700</v>
+        <v>20061800</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>238000000000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>169000000000</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69000000000</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1565306000000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1634655000000</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>69349000000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17645591700</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4401000000</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>-72973000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-117660000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0596490153701297</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.1518645580447827</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.33174623470495</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.213364301626371</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2678146909065761</v>
+      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>220354408300</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>46953408300</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46953408300</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>119926408300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20060800</v>
+        <v>20061900</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1097,125 +1129,113 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1494494000000</v>
+        <v>1634655000000</v>
       </c>
       <c r="G11" t="n">
-        <v>1520809000000</v>
+        <v>1635527000000</v>
       </c>
       <c r="H11" t="n">
-        <v>26315000000</v>
+        <v>872000000</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5000000000</v>
+        <v>3601000000</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>-2580000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-2880000000</v>
+      </c>
       <c r="N11" t="n">
-        <v>1.201903856236637</v>
+        <v>-0.5604608949275374</v>
       </c>
       <c r="O11" t="n">
-        <v>1.694488950216807</v>
+        <v>-0.795932854122987</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.207558830888691</v>
+        <v>2.342342041578926</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.992384087663221</v>
+        <v>-0.3021384180253002</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.3304416634916914</v>
+        <v>0.205301356390781</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5000000000</v>
+        <v>-3601000000</v>
       </c>
       <c r="U11" t="n">
-        <v>-5000000000</v>
+        <v>-3601000000</v>
       </c>
       <c r="V11" t="n">
-        <v>-5000000000</v>
+        <v>-1021000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20060900</v>
+        <v>20062000</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>230000000000</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>195000000000</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>35000000000</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1520809000000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1535311000000</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14502000000</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6470094200</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2000000000</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>-2500000000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-2505000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-0.7845455915125022</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-1.093506158412695</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-3.558347898782571</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.9840320745420919</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-0.3104657562713538</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>223529905800</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>26529905800</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>26529905800</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>29029905800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20061000</v>
+        <v>20062100</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1227,193 +1247,181 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1535311000000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1504569000000</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-30742000000</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2750000000</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-222000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.5302773828749184</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-1.035930133287771</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8.507084072930574</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-0.3733284343173852</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-2750000000</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-2750000000</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-2805000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20061100</v>
+        <v>20062200</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>217000000000</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>153000000000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>64000000000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1504569000000</v>
+        <v>1635527000000</v>
       </c>
       <c r="G14" t="n">
-        <v>1550414000000</v>
+        <v>1626909000000</v>
       </c>
       <c r="H14" t="n">
-        <v>45845000000</v>
+        <v>-8618000000</v>
       </c>
       <c r="I14" t="n">
-        <v>7193692400</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6500000000</v>
+        <v>12801000000</v>
       </c>
       <c r="K14" t="n">
-        <v>92706000000</v>
+        <v>43650000000</v>
       </c>
       <c r="L14" t="n">
-        <v>-91923000000</v>
+        <v>-1075000000</v>
       </c>
       <c r="M14" t="n">
-        <v>-116523000000</v>
+        <v>-1075000000</v>
       </c>
       <c r="N14" t="n">
-        <v>-6.020105238565734</v>
+        <v>0.6502064262599703</v>
       </c>
       <c r="O14" t="n">
-        <v>-7.083875661429725</v>
+        <v>0.5934642364777378</v>
       </c>
       <c r="P14" t="n">
-        <v>1.688410961462775</v>
+        <v>1.761099084570027</v>
       </c>
       <c r="Q14" t="n">
-        <v>-5.272674341448116</v>
+        <v>-0.6580346026818601</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8013365613557695</v>
+        <v>-0.5938990470053808</v>
       </c>
       <c r="S14" t="n">
-        <v>209806307600</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50306307600</v>
+        <v>-12801000000</v>
       </c>
       <c r="U14" t="n">
-        <v>-42399692400</v>
+        <v>-56451000000</v>
       </c>
       <c r="V14" t="n">
-        <v>49523307600</v>
+        <v>-55376000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20061200</v>
+        <v>20062300</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>190000000000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>185000000000</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5000000000</v>
       </c>
       <c r="F15" t="n">
-        <v>1550414000000</v>
+        <v>1626909000000</v>
       </c>
       <c r="G15" t="n">
-        <v>1541349000000</v>
+        <v>1612877000000</v>
       </c>
       <c r="H15" t="n">
-        <v>-9065000000</v>
+        <v>-14032000000</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5704144800</v>
       </c>
       <c r="J15" t="n">
-        <v>4000000000</v>
+        <v>1731000000</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>-14000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-14000000</v>
+      </c>
       <c r="N15" t="n">
-        <v>1.276764888727067</v>
+        <v>0.4278819845653216</v>
       </c>
       <c r="O15" t="n">
-        <v>1.860405036740665</v>
+        <v>0.5013062947638903</v>
       </c>
       <c r="P15" t="n">
-        <v>-8.990619063534911</v>
+        <v>-0.2212393114865335</v>
       </c>
       <c r="Q15" t="n">
-        <v>-3.832652812101403</v>
+        <v>0.7468386529102113</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6094374060215555</v>
+        <v>-0.3610837439586853</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>184295855200</v>
       </c>
       <c r="T15" t="n">
-        <v>-4000000000</v>
+        <v>-2435144800</v>
       </c>
       <c r="U15" t="n">
-        <v>-4000000000</v>
+        <v>-2435144800</v>
       </c>
       <c r="V15" t="n">
-        <v>-4005000000</v>
+        <v>-2421144800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20061300</v>
+        <v>20062400</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1425,229 +1433,245 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1612877000000</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1586573000000</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-26304000000</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6001000000</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-864000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-2508000000</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-2.599536458904117</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-2.732124893187729</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-5.901476647404943</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-4.117256069655388</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4758939241101803</v>
+      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-6001000000</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-6001000000</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-5137000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20061400</v>
+        <v>20062500</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>211000000000</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>146000000000</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>65000000000</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1586573000000</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1638128000000</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>51555000000</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4249636400</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1201000000</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>-46293000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-86601000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.097286501971252</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.181382018146926</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.86597349121201</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.633427056123663</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2879460977458528</v>
+      </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>206750363600</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>59549363600</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>59549363600</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>105842363600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20061500</v>
+        <v>20062600</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>92000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D18" t="n">
-        <v>24000000000</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>68000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F18" t="n">
-        <v>1541349000000</v>
+        <v>1638128000000</v>
       </c>
       <c r="G18" t="n">
-        <v>1597571000000</v>
+        <v>1647248000000</v>
       </c>
       <c r="H18" t="n">
-        <v>56222000000</v>
+        <v>9120000000</v>
       </c>
       <c r="I18" t="n">
-        <v>1308000000</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4401000000</v>
+        <v>1731000000</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>-1980000000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-5600000000</v>
+      </c>
       <c r="N18" t="n">
-        <v>0.8444240424887671</v>
+        <v>-2.431015297556918</v>
       </c>
       <c r="O18" t="n">
-        <v>0.623738255925753</v>
+        <v>-2.847116721616904</v>
       </c>
       <c r="P18" t="n">
-        <v>1.859556457521444</v>
+        <v>-0.5883846030660641</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.060209464994879</v>
+        <v>-2.637768095618265</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.6591815982988862</v>
+        <v>0.07190518327827917</v>
       </c>
       <c r="S18" t="n">
-        <v>90692000000</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>62291000000</v>
+        <v>18269000000</v>
       </c>
       <c r="U18" t="n">
-        <v>62291000000</v>
+        <v>18269000000</v>
       </c>
       <c r="V18" t="n">
-        <v>62291000000</v>
+        <v>20249000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20061600</v>
+        <v>20062700</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>205000000000</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>195000000000</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1597571000000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1588615000000</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-8956000000</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6771856400</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4140000000</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-5000000</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.857230991496327</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.001089080557835</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.321189279516414</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-0.8667312094534071</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.2899738881279159</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>198228143600</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-911856400</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-911856400</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-920856400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20061700</v>
+        <v>20062800</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1659,195 +1683,177 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1588615000000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1565306000000</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-23309000000</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="K20" t="n">
-        <v>18607000000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-142000000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-475000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-0.3587223877957163</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-0.6470479762003841</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.004194270226732</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.9780171234102023</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.2061690271440812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-25000000</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-18632000000</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-18490000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20061800</v>
+        <v>20062900</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>238000000000</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>169000000000</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>69000000000</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1565306000000</v>
+        <v>1647248000000</v>
       </c>
       <c r="G21" t="n">
-        <v>1634655000000</v>
+        <v>1644690000000</v>
       </c>
       <c r="H21" t="n">
-        <v>69349000000</v>
+        <v>-2558000000</v>
       </c>
       <c r="I21" t="n">
-        <v>17645591700</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4401000000</v>
+        <v>8801000000</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-72973000000</v>
+        <v>-100000000</v>
       </c>
       <c r="M21" t="n">
-        <v>-117660000000</v>
+        <v>-500000000</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0596490153701297</v>
+        <v>1.463926539198626</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1518645580447827</v>
+        <v>2.306932398326642</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.157901161595395</v>
+        <v>4.873557253522415</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.213364301626371</v>
+        <v>5.119656644574982</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2678146909065761</v>
+        <v>0.04102658002804487</v>
       </c>
       <c r="S21" t="n">
-        <v>220354408300</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>46953408300</v>
+        <v>-8801000000</v>
       </c>
       <c r="U21" t="n">
-        <v>46953408300</v>
+        <v>-8801000000</v>
       </c>
       <c r="V21" t="n">
-        <v>119926408300</v>
+        <v>-8701000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20061900</v>
+        <v>20063000</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>331000000000</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>248000000000</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83000000000</v>
       </c>
       <c r="F22" t="n">
-        <v>1634655000000</v>
+        <v>1644690000000</v>
       </c>
       <c r="G22" t="n">
-        <v>1635527000000</v>
+        <v>1722032000000</v>
       </c>
       <c r="H22" t="n">
-        <v>872000000</v>
+        <v>77342000000</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>29235095200</v>
       </c>
       <c r="J22" t="n">
-        <v>3601000000</v>
+        <v>1735000000</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-2580000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-2880000000</v>
-      </c>
+        <v>295000000</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>-0.5604608949275374</v>
+        <v>1.542523427359198</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.795932854122987</v>
+        <v>0.8508796723165883</v>
       </c>
       <c r="P22" t="n">
-        <v>2.152191080860247</v>
+        <v>-1.084763652362899</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.3021384180253002</v>
+        <v>7.00050501816319</v>
       </c>
       <c r="R22" t="n">
-        <v>0.205301356390781</v>
+        <v>-0.154005670974298</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>301764904800</v>
       </c>
       <c r="T22" t="n">
-        <v>-3601000000</v>
+        <v>52029904800</v>
       </c>
       <c r="U22" t="n">
-        <v>-3601000000</v>
+        <v>52029904800</v>
       </c>
       <c r="V22" t="n">
-        <v>-1021000000</v>
+        <v>51734904800</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20062000</v>
+        <v>20070100</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1859,99 +1865,127 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1722032000000</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1656747000000</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-65285000000</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2401000000</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-1470000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-2953000000</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5013029553568004</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.301051082610334</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.38052016805733</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.676818678583795</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1950944066095202</v>
+      </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-2401000000</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-2401000000</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-931000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20062100</v>
+        <v>20070200</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>175000000000</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>152000000000</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>23000000000</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1656747000000</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1659147000000</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2400000000</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3601000000</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>-42556000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-71373000000</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4501120620449166</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3562117200229949</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.086480282866811</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7.288701470384248</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1235231546034148</v>
+      </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>161469916200</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>5868916200</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>5868916200</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>48424916200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20062200</v>
+        <v>20070300</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1963,129 +1997,101 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1635527000000</v>
+        <v>1659147000000</v>
       </c>
       <c r="G25" t="n">
-        <v>1626909000000</v>
+        <v>1661799000000</v>
       </c>
       <c r="H25" t="n">
-        <v>-8618000000</v>
+        <v>2652000000</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12801000000</v>
-      </c>
-      <c r="K25" t="n">
-        <v>43650000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-1075000000</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-1075000000</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.6502064262599703</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5934642364777378</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.153770816471319</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.6580346026818601</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-0.5938990470053808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-12801000000</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-56451000000</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-55376000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20062300</v>
+        <v>20070400</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>190000000000</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>185000000000</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>5000000000</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1626909000000</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1612877000000</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-14032000000</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5704144800</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1731000000</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>-14000000</v>
-      </c>
-      <c r="M26" t="n">
-        <v>-14000000</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.4278819845653216</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.5013062947638903</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.212383737536827</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.7468386529102113</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-0.3610837439586853</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>184295855200</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-2435144800</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-2435144800</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-2421144800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20062400</v>
+        <v>20070500</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2097,193 +2103,179 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1612877000000</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1586573000000</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-26304000000</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6001000000</v>
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>-864000000</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-2508000000</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.599536458904117</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-2.732124893187729</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-0.9002265447400821</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-4.117256069655388</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.4758939241101803</v>
-      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-6001000000</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>-6001000000</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>-5137000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20062500</v>
+        <v>20070600</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>211000000000</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146000000000</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>65000000000</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1586573000000</v>
+        <v>1661799000000</v>
       </c>
       <c r="G28" t="n">
-        <v>1638128000000</v>
+        <v>1660660000000</v>
       </c>
       <c r="H28" t="n">
-        <v>51555000000</v>
+        <v>-1139000000</v>
       </c>
       <c r="I28" t="n">
-        <v>4249636400</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1201000000</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-46293000000</v>
+        <v>-500000000</v>
       </c>
       <c r="M28" t="n">
-        <v>-86601000000</v>
+        <v>-500000000</v>
       </c>
       <c r="N28" t="n">
-        <v>1.097286501971252</v>
+        <v>1.575448225744402</v>
       </c>
       <c r="O28" t="n">
-        <v>1.181382018146926</v>
+        <v>1.768227827016889</v>
       </c>
       <c r="P28" t="n">
-        <v>-6.202367037245382</v>
+        <v>0.5695877566926065</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.633427056123663</v>
+        <v>12.76111893664226</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2879460977458528</v>
+        <v>-0.5455468563793007</v>
       </c>
       <c r="S28" t="n">
-        <v>206750363600</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>59549363600</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>59549363600</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>105842363600</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20062600</v>
+        <v>20070700</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>20000000000</v>
+        <v>145000000000</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>150000000000</v>
       </c>
       <c r="E29" t="n">
-        <v>20000000000</v>
+        <v>-5000000000</v>
       </c>
       <c r="F29" t="n">
-        <v>1638128000000</v>
+        <v>1660660000000</v>
       </c>
       <c r="G29" t="n">
-        <v>1647248000000</v>
+        <v>1642079000000</v>
       </c>
       <c r="H29" t="n">
-        <v>9120000000</v>
+        <v>-18581000000</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="J29" t="n">
-        <v>1731000000</v>
+        <v>12801000000</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>-1980000000</v>
+        <v>-701000000</v>
       </c>
       <c r="M29" t="n">
-        <v>-5600000000</v>
+        <v>-795000000</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.431015297556918</v>
+        <v>-1.086390488381492</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.847116721616904</v>
+        <v>-1.516313087641564</v>
       </c>
       <c r="P29" t="n">
-        <v>1.816328719361535</v>
+        <v>-0.02458735534767477</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2.637768095618265</v>
+        <v>1.301060431585421</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07190518327827917</v>
+        <v>0.0930194706879845</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>138562377200</v>
       </c>
       <c r="T29" t="n">
-        <v>18269000000</v>
+        <v>-24238622800</v>
       </c>
       <c r="U29" t="n">
-        <v>18269000000</v>
+        <v>-24238622800</v>
       </c>
       <c r="V29" t="n">
-        <v>20249000000</v>
+        <v>-23537622800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20062700</v>
+        <v>20070800</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2295,96 +2287,124 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1642079000000</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1624404000000</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-17675000000</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1732000000</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-2562000000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-3242000000</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7808222625285763</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6824631836796503</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6917060206534573</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-1.706760175711744</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.4639622210057633</v>
+      </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>-1732000000</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>-1732000000</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>830000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20062800</v>
+        <v>20070900</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>175000000000</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>155000000000</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20000000000</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1624404000000</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1642285000000</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>17881000000</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>10875237800</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6001000000</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>-26054000000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-54218000000</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.5632536362400912</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-1.384137043556206</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-3.131888004517528</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.032944016248662</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.2799343199681946</v>
+      </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>164124762200</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3123762200</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3123762200</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>29177762200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20062900</v>
+        <v>20071000</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -2399,125 +2419,113 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1647248000000</v>
+        <v>1642285000000</v>
       </c>
       <c r="G32" t="n">
-        <v>1644690000000</v>
+        <v>1641080000000</v>
       </c>
       <c r="H32" t="n">
-        <v>-2558000000</v>
+        <v>-1205000000</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>8801000000</v>
+        <v>1201000000</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>-100000000</v>
+        <v>-40000000</v>
       </c>
       <c r="M32" t="n">
-        <v>-500000000</v>
+        <v>-40000000</v>
       </c>
       <c r="N32" t="n">
-        <v>1.463926539198626</v>
+        <v>1.046480713249013</v>
       </c>
       <c r="O32" t="n">
-        <v>2.306932398326642</v>
+        <v>1.437158088986327</v>
       </c>
       <c r="P32" t="n">
-        <v>1.685993729666588</v>
+        <v>2.349672213623037</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.119656644574982</v>
+        <v>10.77148962157504</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04102658002804487</v>
+        <v>-0.05167485515584625</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8801000000</v>
+        <v>-1201000000</v>
       </c>
       <c r="U32" t="n">
-        <v>-8801000000</v>
+        <v>-1201000000</v>
       </c>
       <c r="V32" t="n">
-        <v>-8701000000</v>
+        <v>-1161000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20063000</v>
+        <v>20071100</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>331000000000</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>248000000000</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>83000000000</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1644690000000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1722032000000</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77342000000</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>29235095200</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1735000000</v>
+        <v>0</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>295000000</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>1.542523427359198</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.8508796723165883</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.052469987647463</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>7.00050501816319</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-0.154005670974298</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>301764904800</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>52029904800</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>52029904800</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>51734904800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20070100</v>
+        <v>20071200</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2529,282 +2537,310 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1722032000000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-65285000000</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2401000000</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>-1470000000</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-2953000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.5013029553568004</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-0.301051082610334</v>
-      </c>
-      <c r="P34" t="n">
-        <v>-1.079318030945965</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.676818678583795</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-0.1950944066095202</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-931000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20070200</v>
+        <v>20071300</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>175000000000</v>
+        <v>25000000</v>
       </c>
       <c r="D35" t="n">
-        <v>152000000000</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>23000000000</v>
+        <v>25000000</v>
       </c>
       <c r="F35" t="n">
-        <v>1656747000000</v>
+        <v>1641080000000</v>
       </c>
       <c r="G35" t="n">
-        <v>1659147000000</v>
+        <v>1653555000000</v>
       </c>
       <c r="H35" t="n">
-        <v>2400000000</v>
+        <v>12475000000</v>
       </c>
       <c r="I35" t="n">
-        <v>13530083800</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3601000000</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>-42556000000</v>
+        <v>-275000000</v>
       </c>
       <c r="M35" t="n">
-        <v>-71373000000</v>
+        <v>-275000000</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4501120620449166</v>
+        <v>-0.9304001033515519</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3562117200229949</v>
+        <v>0.04003802420691794</v>
       </c>
       <c r="P35" t="n">
-        <v>1.382602448310755</v>
+        <v>-0.297404587658154</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.288701470384248</v>
+        <v>-2.868593479223176</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1235231546034148</v>
+        <v>-0.09311397048957253</v>
       </c>
       <c r="S35" t="n">
-        <v>161469916200</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5868916200</v>
+        <v>25000000</v>
       </c>
       <c r="U35" t="n">
-        <v>5868916200</v>
+        <v>25000000</v>
       </c>
       <c r="V35" t="n">
-        <v>48424916200</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20070300</v>
+        <v>20071400</v>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>135000000000</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>180000000000</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-45000000000</v>
       </c>
       <c r="F36" t="n">
-        <v>1659147000000</v>
+        <v>1653555000000</v>
       </c>
       <c r="G36" t="n">
-        <v>1661799000000</v>
+        <v>1627709000000</v>
       </c>
       <c r="H36" t="n">
-        <v>2652000000</v>
+        <v>-25846000000</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>1732000000</v>
+      </c>
+      <c r="K36" t="n">
+        <v>59556734928</v>
+      </c>
       <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+        <v>2114000000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-94000000</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.346659218604838</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.137864497775151</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.4798041634532336</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.268636904522815</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.3107472752416666</v>
+      </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>128342472100</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>-53389527900</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>-112946262828</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>-115060262828</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20070400</v>
+        <v>20071500</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>94000000000</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>56000000000</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38000000000</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1627709000000</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1740455000000</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>112746000000</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>7457547200</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>12801000000</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>10000000</v>
+      </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>0.9001927860159984</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8423227005985889</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.244142699219629</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.893062925307842</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.1871688765757988</v>
+      </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>86542452800</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>17731452800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20070500</v>
+        <v>20071600</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>209000000000</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>184000000000</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1740455000000</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1807305000000</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>66850000000</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+        <v>3601000000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12148000000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-26353000000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-45880000000</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.3425422915885264</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.5061907762122538</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-1.098366486530777</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-3.07143397244584</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.2812465031941732</v>
+      </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>190275769200</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2674769200</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-9473230800</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>16879769200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20070600</v>
+        <v>20071700</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -2819,127 +2855,111 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1661799000000</v>
+        <v>1807305000000</v>
       </c>
       <c r="G39" t="n">
-        <v>1660660000000</v>
+        <v>1812801000000</v>
       </c>
       <c r="H39" t="n">
-        <v>-1139000000</v>
+        <v>5496000000</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1199000000</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-500000000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-500000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>1.575448225744402</v>
+        <v>0.2840978788711261</v>
       </c>
       <c r="O39" t="n">
-        <v>1.768227827016889</v>
+        <v>-0.2344075126535486</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6201934792432118</v>
+        <v>-0.3929269219441016</v>
       </c>
       <c r="Q39" t="n">
-        <v>12.76111893664226</v>
+        <v>0.01321161441250016</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.5455468563793007</v>
+        <v>-0.4258371810480386</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>-1199000000</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>-1199000000</v>
       </c>
       <c r="V39" t="n">
-        <v>500000000</v>
+        <v>-1199000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20070700</v>
+        <v>20071800</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145000000000</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>150000000000</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-5000000000</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1660660000000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1642079000000</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-18581000000</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6437622800</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12801000000</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>-701000000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>-795000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-1.086390488381492</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-1.516313087641564</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-0.04916533336684165</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.301060431585421</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.0930194706879845</v>
-      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>138562377200</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-24238622800</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-24238622800</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-23537622800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20070800</v>
+        <v>20071900</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2951,193 +2971,181 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1642079000000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1624404000000</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-17675000000</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1732000000</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>-2562000000</v>
-      </c>
-      <c r="M41" t="n">
-        <v>-3242000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.7808222625285763</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.6824631836796503</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-0.02470883484085183</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-1.706760175711744</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-0.4639622210057633</v>
-      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1732000000</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1732000000</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>830000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20070900</v>
+        <v>20072000</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>155000000000</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>20000000000</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1624404000000</v>
+        <v>1812801000000</v>
       </c>
       <c r="G42" t="n">
-        <v>1642285000000</v>
+        <v>1817270000000</v>
       </c>
       <c r="H42" t="n">
-        <v>17881000000</v>
+        <v>4469000000</v>
       </c>
       <c r="I42" t="n">
-        <v>10875237800</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6001000000</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>-26054000000</v>
+        <v>-3550000000</v>
       </c>
       <c r="M42" t="n">
-        <v>-54218000000</v>
+        <v>-3550000000</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.5632536362400912</v>
+        <v>0.8408085840118025</v>
       </c>
       <c r="O42" t="n">
-        <v>-1.384137043556206</v>
+        <v>0.03345770878211009</v>
       </c>
       <c r="P42" t="n">
-        <v>0.68510545953476</v>
+        <v>0.4429141434033333</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.032944016248662</v>
+        <v>9.358729255617085</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2799343199681946</v>
+        <v>-0.1145720319800436</v>
       </c>
       <c r="S42" t="n">
-        <v>164124762200</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3123762200</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3123762200</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>29177762200</v>
+        <v>3550000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20071000</v>
+        <v>20072100</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>125000000000</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>170000000000</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-45000000000</v>
       </c>
       <c r="F43" t="n">
-        <v>1642285000000</v>
+        <v>1817270000000</v>
       </c>
       <c r="G43" t="n">
-        <v>1641080000000</v>
+        <v>1794448000000</v>
       </c>
       <c r="H43" t="n">
-        <v>-1205000000</v>
+        <v>-22822000000</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5332930800</v>
       </c>
       <c r="J43" t="n">
-        <v>1201000000</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>1734000000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>29183280071</v>
+      </c>
       <c r="L43" t="n">
-        <v>-40000000</v>
+        <v>-1616000000</v>
       </c>
       <c r="M43" t="n">
-        <v>-40000000</v>
+        <v>-2208000000</v>
       </c>
       <c r="N43" t="n">
-        <v>1.046480713249013</v>
+        <v>0.1670468868134096</v>
       </c>
       <c r="O43" t="n">
-        <v>1.437158088986327</v>
+        <v>0.5945306672427577</v>
       </c>
       <c r="P43" t="n">
-        <v>-3.233962947899218</v>
+        <v>2.829022553540424</v>
       </c>
       <c r="Q43" t="n">
-        <v>10.77148962157504</v>
+        <v>-4.551414524024201</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.05167485515584625</v>
+        <v>-0.7415134041489883</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>119667069200</v>
       </c>
       <c r="T43" t="n">
-        <v>-1201000000</v>
+        <v>-52066930800</v>
       </c>
       <c r="U43" t="n">
-        <v>-1201000000</v>
+        <v>-81250210871</v>
       </c>
       <c r="V43" t="n">
-        <v>-1161000000</v>
+        <v>-79634210871</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20071100</v>
+        <v>20072200</v>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3149,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1794448000000</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1777180000000</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-17268000000</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3164,13 +3172,27 @@
         <v>0</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>-1339000000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-2516000000</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5751390254972526</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6167461824244995</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.1444332144232653</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.499060081496248</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.1576805741719043</v>
+      </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
@@ -3181,85 +3203,99 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1339000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20071200</v>
+        <v>20072300</v>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>185000000000</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>153000000000</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>32000000000</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1777180000000</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1821824000000</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>44644000000</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>-3756000000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-4258000000</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.233635386138733</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1.311434002946211</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-1.97855021682848</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-4.720808366580733</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.2947976093922036</v>
+      </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168722824200</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>15722824200</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>15722824200</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>19478824200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20071300</v>
+        <v>20072400</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1641080000000</v>
+        <v>1821824000000</v>
       </c>
       <c r="G46" t="n">
-        <v>1653555000000</v>
+        <v>1825498000000</v>
       </c>
       <c r="H46" t="n">
-        <v>12475000000</v>
+        <v>3674000000</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3269,309 +3305,279 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-275000000</v>
+        <v>-20000000</v>
       </c>
       <c r="M46" t="n">
-        <v>-275000000</v>
+        <v>-20000000</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.9304001033515519</v>
+        <v>-0.6223250256536601</v>
       </c>
       <c r="O46" t="n">
-        <v>0.04003802420691794</v>
+        <v>-0.6875838878253876</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8178389810078175</v>
+        <v>0.5358042214928733</v>
       </c>
       <c r="Q46" t="n">
-        <v>-2.868593479223176</v>
+        <v>-6.784552766329935</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.09311397048957253</v>
+        <v>-0.2637965694370324</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>300000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20071400</v>
+        <v>20072500</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>135000000000</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>180000000000</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>-45000000000</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1653555000000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1627709000000</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-25846000000</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>6657527900</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1732000000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>59556734928</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2114000000</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-94000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.346659218604838</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2.137864497775151</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-0.1020691934908161</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.268636904522815</v>
-      </c>
-      <c r="R47" t="n">
-        <v>-0.3107472752416666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>128342472100</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>-53389527900</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>-112946262828</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>-115060262828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20071500</v>
+        <v>20072600</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>94000000000</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>56000000000</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>38000000000</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1627709000000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1740455000000</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>112746000000</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>7457547200</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>12801000000</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>10000000</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
-        <v>0.9001927860159984</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.8423227005985889</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.210777523318008</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.893062925307842</v>
-      </c>
-      <c r="R48" t="n">
-        <v>-0.1871688765757988</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>86542452800</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>17741452800</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>17741452800</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>17731452800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20071600</v>
+        <v>20072700</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>209000000000</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>184000000000</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1740455000000</v>
+        <v>1825498000000</v>
       </c>
       <c r="G49" t="n">
-        <v>1807305000000</v>
+        <v>1830546000000</v>
       </c>
       <c r="H49" t="n">
-        <v>66850000000</v>
+        <v>5048000000</v>
       </c>
       <c r="I49" t="n">
-        <v>18724230800</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3601000000</v>
-      </c>
-      <c r="K49" t="n">
-        <v>12148000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>-26353000000</v>
-      </c>
-      <c r="M49" t="n">
-        <v>-45880000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>-0.3425422915885264</v>
+        <v>0.7385469044350499</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.5061907762122538</v>
+        <v>0.4343630519790444</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.5868011479533544</v>
+        <v>1.139111549019555</v>
       </c>
       <c r="Q49" t="n">
-        <v>-3.07143397244584</v>
+        <v>8.543552305640244</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2812465031941732</v>
+        <v>-0.8055136709291276</v>
       </c>
       <c r="S49" t="n">
-        <v>190275769200</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>2674769200</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>-9473230800</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>16879769200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20071700</v>
+        <v>20072800</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>120000000000</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>150000000000</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-30000000000</v>
       </c>
       <c r="F50" t="n">
-        <v>1807305000000</v>
+        <v>1830546000000</v>
       </c>
       <c r="G50" t="n">
-        <v>1812801000000</v>
+        <v>1795511000000</v>
       </c>
       <c r="H50" t="n">
-        <v>5496000000</v>
+        <v>-35035000000</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>6398553400</v>
       </c>
       <c r="J50" t="n">
-        <v>1199000000</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>-500000000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-500000000</v>
+      </c>
       <c r="N50" t="n">
-        <v>0.2840978788711261</v>
+        <v>-0.648367964841854</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.2344075126535486</v>
+        <v>-0.7745740692941615</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.4663687257759945</v>
+        <v>-1.34453190414843</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01321161441250016</v>
+        <v>-4.196142643056017</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.4258371810480386</v>
+        <v>0.08549030721234582</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>113601446600</v>
       </c>
       <c r="T50" t="n">
-        <v>-1199000000</v>
+        <v>-36398553400</v>
       </c>
       <c r="U50" t="n">
-        <v>-1199000000</v>
+        <v>-36398553400</v>
       </c>
       <c r="V50" t="n">
-        <v>-1199000000</v>
+        <v>-35898553400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20071800</v>
+        <v>20072900</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -3583,233 +3589,241 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1795511000000</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1792434000000</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>-3077000000</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>12825000000</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.239456881251422</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.6074289308002935</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.5592014010780763</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.506995011138408</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.5333333333333333</v>
+      </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>-12825000000</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>-12825000000</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>-12583000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20071900</v>
+        <v>20073000</v>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>165000000000</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>186000000000</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-21000000000</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1792434000000</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1767341000000</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>-25093000000</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>12161641600</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>-10275000000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-15378000000</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.3781212301098812</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8568146695595794</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-3.267188525626882</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.7809136503486223</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.3536239092733198</v>
+      </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>152838358400</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>-33161641600</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>-33161641600</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>-22886641600</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20072000</v>
+        <v>20073100</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>196000000000</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>151000000000</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>45000000000</v>
       </c>
       <c r="F53" t="n">
-        <v>1812801000000</v>
+        <v>1767341000000</v>
       </c>
       <c r="G53" t="n">
-        <v>1817270000000</v>
+        <v>1763090000000</v>
       </c>
       <c r="H53" t="n">
-        <v>4469000000</v>
+        <v>-4251000000</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>22273141400</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1750000000</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>-3550000000</v>
-      </c>
-      <c r="M53" t="n">
-        <v>-3550000000</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>0.8408085840118025</v>
+        <v>0.7613676055630426</v>
       </c>
       <c r="O53" t="n">
-        <v>0.03345770878211009</v>
+        <v>0.4342023123486262</v>
       </c>
       <c r="P53" t="n">
-        <v>0.04955514732708439</v>
+        <v>0.867630856456271</v>
       </c>
       <c r="Q53" t="n">
-        <v>9.358729255617085</v>
+        <v>-3.744553166254125</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.1145720319800436</v>
+        <v>0.6033156221018349</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>173726858600</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>20976858600</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>20976858600</v>
       </c>
       <c r="V53" t="n">
-        <v>3550000000</v>
+        <v>20976858600</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20072100</v>
+        <v>20080100</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>125000000000</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>170000000000</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-45000000000</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1817270000000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1794448000000</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-22822000000</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>5332930800</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1734000000</v>
-      </c>
-      <c r="K54" t="n">
-        <v>29183280071</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-1616000000</v>
-      </c>
-      <c r="M54" t="n">
-        <v>-2208000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.1670468868134096</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.5945306672427577</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.717915748058488</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>-4.551414524024201</v>
-      </c>
-      <c r="R54" t="n">
-        <v>-0.7415134041489883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>119667069200</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>-52066930800</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>-81250210871</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>-79634210871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20072200</v>
+        <v>20080200</v>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -3821,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1794448000000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1777180000000</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-17268000000</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -3836,27 +3850,13 @@
         <v>0</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>-1339000000</v>
-      </c>
-      <c r="M55" t="n">
-        <v>-2516000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.5751390254972526</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.6167461824244995</v>
-      </c>
-      <c r="P55" t="n">
-        <v>-0.0721124528779416</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.499060081496248</v>
-      </c>
-      <c r="R55" t="n">
-        <v>-0.1576805741719043</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
         <v>0</v>
       </c>
@@ -3867,1043 +3867,69 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1339000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20072300</v>
+        <v>20080300</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>185000000000</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>153000000000</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>32000000000</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1777180000000</v>
+        <v>1763090000000</v>
       </c>
       <c r="G56" t="n">
-        <v>1821824000000</v>
+        <v>1745136000000</v>
       </c>
       <c r="H56" t="n">
-        <v>44644000000</v>
+        <v>-17954000000</v>
       </c>
       <c r="I56" t="n">
-        <v>16277175800</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>8825000000</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>-3756000000</v>
-      </c>
-      <c r="M56" t="n">
-        <v>-4258000000</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>-1.233635386138733</v>
+        <v>0.7143592710008744</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.311434002946211</v>
+        <v>0.8894477775321663</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.5487197814543</v>
+        <v>2.054959219856146</v>
       </c>
       <c r="Q56" t="n">
-        <v>-4.720808366580733</v>
+        <v>3.742754075482448</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.2947976093922036</v>
+        <v>0.01070205042633099</v>
       </c>
       <c r="S56" t="n">
-        <v>168722824200</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>15722824200</v>
+        <v>-8825000000</v>
       </c>
       <c r="U56" t="n">
-        <v>15722824200</v>
+        <v>-8825000000</v>
       </c>
       <c r="V56" t="n">
-        <v>19478824200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>20072400</v>
-      </c>
-      <c r="B57" t="b">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1821824000000</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1825498000000</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3674000000</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>-20000000</v>
-      </c>
-      <c r="M57" t="n">
-        <v>-20000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-0.6223250256536601</v>
-      </c>
-      <c r="O57" t="n">
-        <v>-0.6875838878253876</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.6316771683602186</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>-6.784552766329935</v>
-      </c>
-      <c r="R57" t="n">
-        <v>-0.2637965694370324</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>20072500</v>
-      </c>
-      <c r="B58" t="b">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>20072600</v>
-      </c>
-      <c r="B59" t="b">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>20072700</v>
-      </c>
-      <c r="B60" t="b">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1825498000000</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1830546000000</v>
-      </c>
-      <c r="H60" t="n">
-        <v>5048000000</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
-        <v>0.7385469044350499</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.4343630519790444</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.479506711433924</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>8.543552305640244</v>
-      </c>
-      <c r="R60" t="n">
-        <v>-0.8055136709291276</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>20072800</v>
-      </c>
-      <c r="B61" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>120000000000</v>
-      </c>
-      <c r="D61" t="n">
-        <v>150000000000</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-30000000000</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1830546000000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1795511000000</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-35035000000</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6398553400</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>-500000000</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-500000000</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-0.648367964841854</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-0.7745740692941615</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-1.492903358550323</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>-4.196142643056017</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.08549030721234582</v>
-      </c>
-      <c r="S61" t="n">
-        <v>113601446600</v>
-      </c>
-      <c r="T61" t="n">
-        <v>-36398553400</v>
-      </c>
-      <c r="U61" t="n">
-        <v>-36398553400</v>
-      </c>
-      <c r="V61" t="n">
-        <v>-35898553400</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>20072900</v>
-      </c>
-      <c r="B62" t="b">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1795511000000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1792434000000</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-3077000000</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>12825000000</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>-242000000</v>
-      </c>
-      <c r="M62" t="n">
-        <v>-242000000</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.239456881251422</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.6074289308002935</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.3655007858982617</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1.506995011138408</v>
-      </c>
-      <c r="R62" t="n">
-        <v>-0.5333333333333333</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>-12825000000</v>
-      </c>
-      <c r="U62" t="n">
-        <v>-12825000000</v>
-      </c>
-      <c r="V62" t="n">
-        <v>-12583000000</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>20073000</v>
-      </c>
-      <c r="B63" t="b">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>165000000000</v>
-      </c>
-      <c r="D63" t="n">
-        <v>186000000000</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-21000000000</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1792434000000</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1767341000000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-25093000000</v>
-      </c>
-      <c r="I63" t="n">
-        <v>12161641600</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>-10275000000</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-15378000000</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-0.3781212301098812</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-0.8568146695595794</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-2.399422488464146</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>-0.7809136503486223</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-0.3536239092733198</v>
-      </c>
-      <c r="S63" t="n">
-        <v>152838358400</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-33161641600</v>
-      </c>
-      <c r="U63" t="n">
-        <v>-33161641600</v>
-      </c>
-      <c r="V63" t="n">
-        <v>-22886641600</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>20073100</v>
-      </c>
-      <c r="B64" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>196000000000</v>
-      </c>
-      <c r="D64" t="n">
-        <v>151000000000</v>
-      </c>
-      <c r="E64" t="n">
-        <v>45000000000</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1767341000000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1763090000000</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-4251000000</v>
-      </c>
-      <c r="I64" t="n">
-        <v>22273141400</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1750000000</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
-        <v>0.7613676055630426</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.4342023123486262</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.3736027899830139</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>-3.744553166254125</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.6033156221018349</v>
-      </c>
-      <c r="S64" t="n">
-        <v>173726858600</v>
-      </c>
-      <c r="T64" t="n">
-        <v>20976858600</v>
-      </c>
-      <c r="U64" t="n">
-        <v>20976858600</v>
-      </c>
-      <c r="V64" t="n">
-        <v>20976858600</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>20080100</v>
-      </c>
-      <c r="B65" t="b">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>20080200</v>
-      </c>
-      <c r="B66" t="b">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>20080300</v>
-      </c>
-      <c r="B67" t="b">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>8825000000</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
-        <v>0.7143592710008744</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.8894477775321663</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.175003051757812</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>3.742754075482448</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.01070205042633099</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
         <v>-8825000000</v>
-      </c>
-      <c r="U67" t="n">
-        <v>-8825000000</v>
-      </c>
-      <c r="V67" t="n">
-        <v>-8825000000</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>20080400</v>
-      </c>
-      <c r="B68" t="b">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>120000000000</v>
-      </c>
-      <c r="D68" t="n">
-        <v>145000000000</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-25000000000</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
-        <v>6238188600</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>-92000000</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>113761811400</v>
-      </c>
-      <c r="T68" t="n">
-        <v>-31238188600</v>
-      </c>
-      <c r="U68" t="n">
-        <v>-31238188600</v>
-      </c>
-      <c r="V68" t="n">
-        <v>-31238188600</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>20080500</v>
-      </c>
-      <c r="B69" t="b">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1225000000</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>-1443000000</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>-1225000000</v>
-      </c>
-      <c r="U69" t="n">
-        <v>-1225000000</v>
-      </c>
-      <c r="V69" t="n">
-        <v>-1225000000</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>20080600</v>
-      </c>
-      <c r="B70" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>165000000000</v>
-      </c>
-      <c r="D70" t="n">
-        <v>179000000000</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-14000000000</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
-        <v>11550602300</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6025000000</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>-10346000000</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>153449397700</v>
-      </c>
-      <c r="T70" t="n">
-        <v>-31575602300</v>
-      </c>
-      <c r="U70" t="n">
-        <v>-31575602300</v>
-      </c>
-      <c r="V70" t="n">
-        <v>-31575602300</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>20080700</v>
-      </c>
-      <c r="B71" t="b">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1750000000</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>-1750000000</v>
-      </c>
-      <c r="U71" t="n">
-        <v>-1750000000</v>
-      </c>
-      <c r="V71" t="n">
-        <v>-1750000000</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>20080800</v>
-      </c>
-      <c r="B72" t="b">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>20080900</v>
-      </c>
-      <c r="B73" t="b">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>20081000</v>
-      </c>
-      <c r="B74" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20061000</v>
+        <v>20060500</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -563,129 +563,111 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1535311000000</v>
+        <v>1501733000000</v>
       </c>
       <c r="G2" t="n">
-        <v>1504569000000</v>
+        <v>1494494000000</v>
       </c>
       <c r="H2" t="n">
-        <v>-30742000000</v>
+        <v>-7239000000</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2750000000</v>
+        <v>4500000000</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-222000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.5302773828749184</v>
+        <v>2.578506868808448</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.035930133287771</v>
+        <v>3.089638601145436</v>
       </c>
       <c r="P2" t="n">
-        <v>1.714285317953531</v>
+        <v>5.732652785106965</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.507084072930574</v>
+        <v>2.424128270608282</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.3733284343173852</v>
+        <v>0.2687638432622326</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-2750000000</v>
+        <v>-4500000000</v>
       </c>
       <c r="U2" t="n">
-        <v>-2750000000</v>
+        <v>-4500000000</v>
       </c>
       <c r="V2" t="n">
-        <v>-2805000000</v>
+        <v>-4500000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20061100</v>
+        <v>20060600</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>217000000000</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>153000000000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64000000000</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1504569000000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1550414000000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>45845000000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7193692400</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6500000000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>92706000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-91923000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-116523000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-6.020105238565734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-7.083875661429725</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-8.339724504496786</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-5.272674341448116</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.8013365613557695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>209806307600</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50306307600</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-42399692400</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>49523307600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20061200</v>
+        <v>20060700</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -697,59 +679,47 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1550414000000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1541349000000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-9065000000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4000000000</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>5000000</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>1.276764888727067</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.860405036740665</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.2206338520627508</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-3.832652812101403</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.6094374060215555</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-4000000000</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-4000000000</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-4005000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20061300</v>
+        <v>20060800</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -761,226 +731,256 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1494494000000</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1520809000000</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>26315000000</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5000000000</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1.201903856236637</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.694488950216807</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-5.658461179574866</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.992384087663221</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.3304416634916914</v>
+      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-5000000000</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-5000000000</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-5000000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20061400</v>
+        <v>20060900</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>230000000000</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>195000000000</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>35000000000</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1520809000000</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1535311000000</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>14502000000</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6470094200</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2000000000</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>-2500000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-2505000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.7845455915125022</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1.093506158412695</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.962323328220455</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.9840320745420919</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.3104657562713538</v>
+      </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>223529905800</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>26529905800</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>26529905800</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>29029905800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20061500</v>
+        <v>20061000</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>92000000000</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24000000000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68000000000</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1541349000000</v>
+        <v>1535311000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1597571000000</v>
+        <v>1504569000000</v>
       </c>
       <c r="H7" t="n">
-        <v>56222000000</v>
+        <v>-30742000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1308000000</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4401000000</v>
+        <v>2750000000</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>55000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-222000000</v>
+      </c>
       <c r="N7" t="n">
-        <v>0.8444240424887671</v>
+        <v>-0.5302773828749184</v>
       </c>
       <c r="O7" t="n">
-        <v>0.623738255925753</v>
+        <v>-1.035930133287771</v>
       </c>
       <c r="P7" t="n">
-        <v>4.246458038116906</v>
+        <v>1.714285317953531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.060209464994879</v>
+        <v>8.507084072930574</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.6591815982988862</v>
+        <v>-0.3733284343173852</v>
       </c>
       <c r="S7" t="n">
-        <v>90692000000</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>62291000000</v>
+        <v>-2750000000</v>
       </c>
       <c r="U7" t="n">
-        <v>62291000000</v>
+        <v>-2750000000</v>
       </c>
       <c r="V7" t="n">
-        <v>62291000000</v>
+        <v>-2805000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20061600</v>
+        <v>20061100</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>205000000000</v>
+        <v>217000000000</v>
       </c>
       <c r="D8" t="n">
-        <v>195000000000</v>
+        <v>153000000000</v>
       </c>
       <c r="E8" t="n">
-        <v>10000000000</v>
+        <v>64000000000</v>
       </c>
       <c r="F8" t="n">
-        <v>1597571000000</v>
+        <v>1504569000000</v>
       </c>
       <c r="G8" t="n">
-        <v>1588615000000</v>
+        <v>1550414000000</v>
       </c>
       <c r="H8" t="n">
-        <v>-8956000000</v>
+        <v>45845000000</v>
       </c>
       <c r="I8" t="n">
-        <v>6771856400</v>
+        <v>7193692400</v>
       </c>
       <c r="J8" t="n">
-        <v>4140000000</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>6500000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>92706000000</v>
+      </c>
       <c r="L8" t="n">
-        <v>9000000</v>
+        <v>-91923000000</v>
       </c>
       <c r="M8" t="n">
-        <v>-5000000</v>
+        <v>-116523000000</v>
       </c>
       <c r="N8" t="n">
-        <v>1.857230991496327</v>
+        <v>-6.020105238565734</v>
       </c>
       <c r="O8" t="n">
-        <v>2.001089080557835</v>
+        <v>-7.083875661429725</v>
       </c>
       <c r="P8" t="n">
-        <v>3.400815552433555</v>
+        <v>-8.339724504496786</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.8667312094534071</v>
+        <v>-5.272674341448116</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2899738881279159</v>
+        <v>0.8013365613557695</v>
       </c>
       <c r="S8" t="n">
-        <v>198228143600</v>
+        <v>209806307600</v>
       </c>
       <c r="T8" t="n">
-        <v>-911856400</v>
+        <v>50306307600</v>
       </c>
       <c r="U8" t="n">
-        <v>-911856400</v>
+        <v>-42399692400</v>
       </c>
       <c r="V8" t="n">
-        <v>-920856400</v>
+        <v>49523307600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20061700</v>
+        <v>20061200</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -995,129 +995,111 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1588615000000</v>
+        <v>1550414000000</v>
       </c>
       <c r="G9" t="n">
-        <v>1565306000000</v>
+        <v>1541349000000</v>
       </c>
       <c r="H9" t="n">
-        <v>-23309000000</v>
+        <v>-9065000000</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18607000000</v>
-      </c>
+        <v>4000000000</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-142000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-475000000</v>
-      </c>
+        <v>5000000</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>-0.3587223877957163</v>
+        <v>1.276764888727067</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.6470479762003841</v>
+        <v>1.860405036740665</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.1073081472801</v>
+        <v>-0.2206338520627508</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9780171234102023</v>
+        <v>-3.832652812101403</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2061690271440812</v>
+        <v>0.6094374060215555</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-25000000</v>
+        <v>-4000000000</v>
       </c>
       <c r="U9" t="n">
-        <v>-18632000000</v>
+        <v>-4000000000</v>
       </c>
       <c r="V9" t="n">
-        <v>-18490000000</v>
+        <v>-4005000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20061800</v>
+        <v>20061300</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>238000000000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>169000000000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69000000000</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1565306000000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1634655000000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>69349000000</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17645591700</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4401000000</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>-72973000000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-117660000000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0596490153701297</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-0.1518645580447827</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.33174623470495</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.213364301626371</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.2678146909065761</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>220354408300</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>46953408300</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46953408300</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119926408300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20061900</v>
+        <v>20061400</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1129,162 +1111,174 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1634655000000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1635527000000</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>872000000</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3601000000</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>-2580000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-2880000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.5604608949275374</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-0.795932854122987</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.342342041578926</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-0.3021384180253002</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.205301356390781</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3601000000</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3601000000</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1021000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20062000</v>
+        <v>20061500</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>92000000000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>24000000000</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>68000000000</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1541349000000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1597571000000</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>56222000000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1308000000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4401000000</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>0.8444240424887671</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.623738255925753</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.246458038116906</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.060209464994879</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.6591815982988862</v>
+      </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>90692000000</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>62291000000</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>62291000000</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>62291000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20062100</v>
+        <v>20061600</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>205000000000</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>195000000000</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1597571000000</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1588615000000</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-8956000000</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6771856400</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4140000000</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-5000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.857230991496327</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.001089080557835</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.400815552433555</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.8667312094534071</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2899738881279159</v>
+      </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198228143600</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-911856400</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-911856400</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-920856400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20062200</v>
+        <v>20061700</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -1299,126 +1293,126 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1635527000000</v>
+        <v>1588615000000</v>
       </c>
       <c r="G14" t="n">
-        <v>1626909000000</v>
+        <v>1565306000000</v>
       </c>
       <c r="H14" t="n">
-        <v>-8618000000</v>
+        <v>-23309000000</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>12801000000</v>
+        <v>25000000</v>
       </c>
       <c r="K14" t="n">
-        <v>43650000000</v>
+        <v>18607000000</v>
       </c>
       <c r="L14" t="n">
-        <v>-1075000000</v>
+        <v>-142000000</v>
       </c>
       <c r="M14" t="n">
-        <v>-1075000000</v>
+        <v>-475000000</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6502064262599703</v>
+        <v>-0.3587223877957163</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5934642364777378</v>
+        <v>-0.6470479762003841</v>
       </c>
       <c r="P14" t="n">
-        <v>1.761099084570027</v>
+        <v>-1.1073081472801</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.6580346026818601</v>
+        <v>0.9780171234102023</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.5938990470053808</v>
+        <v>0.2061690271440812</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-12801000000</v>
+        <v>-25000000</v>
       </c>
       <c r="U14" t="n">
-        <v>-56451000000</v>
+        <v>-18632000000</v>
       </c>
       <c r="V14" t="n">
-        <v>-55376000000</v>
+        <v>-18490000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20062300</v>
+        <v>20061800</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>190000000000</v>
+        <v>238000000000</v>
       </c>
       <c r="D15" t="n">
-        <v>185000000000</v>
+        <v>169000000000</v>
       </c>
       <c r="E15" t="n">
-        <v>5000000000</v>
+        <v>69000000000</v>
       </c>
       <c r="F15" t="n">
-        <v>1626909000000</v>
+        <v>1565306000000</v>
       </c>
       <c r="G15" t="n">
-        <v>1612877000000</v>
+        <v>1634655000000</v>
       </c>
       <c r="H15" t="n">
-        <v>-14032000000</v>
+        <v>69349000000</v>
       </c>
       <c r="I15" t="n">
-        <v>5704144800</v>
+        <v>17645591700</v>
       </c>
       <c r="J15" t="n">
-        <v>1731000000</v>
+        <v>4401000000</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-14000000</v>
+        <v>-72973000000</v>
       </c>
       <c r="M15" t="n">
-        <v>-14000000</v>
+        <v>-117660000000</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4278819845653216</v>
+        <v>0.0596490153701297</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5013062947638903</v>
+        <v>-0.1518645580447827</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2212393114865335</v>
+        <v>2.33174623470495</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7468386529102113</v>
+        <v>1.213364301626371</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.3610837439586853</v>
+        <v>0.2678146909065761</v>
       </c>
       <c r="S15" t="n">
-        <v>184295855200</v>
+        <v>220354408300</v>
       </c>
       <c r="T15" t="n">
-        <v>-2435144800</v>
+        <v>46953408300</v>
       </c>
       <c r="U15" t="n">
-        <v>-2435144800</v>
+        <v>46953408300</v>
       </c>
       <c r="V15" t="n">
-        <v>-2421144800</v>
+        <v>119926408300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20062400</v>
+        <v>20061900</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1433,193 +1427,165 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1612877000000</v>
+        <v>1634655000000</v>
       </c>
       <c r="G16" t="n">
-        <v>1586573000000</v>
+        <v>1635527000000</v>
       </c>
       <c r="H16" t="n">
-        <v>-26304000000</v>
+        <v>872000000</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6001000000</v>
+        <v>3601000000</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-864000000</v>
+        <v>-2580000000</v>
       </c>
       <c r="M16" t="n">
-        <v>-2508000000</v>
+        <v>-2880000000</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.599536458904117</v>
+        <v>-0.5604608949275374</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.732124893187729</v>
+        <v>-0.795932854122987</v>
       </c>
       <c r="P16" t="n">
-        <v>-5.901476647404943</v>
+        <v>2.342342041578926</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4.117256069655388</v>
+        <v>-0.3021384180253002</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4758939241101803</v>
+        <v>0.205301356390781</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-6001000000</v>
+        <v>-3601000000</v>
       </c>
       <c r="U16" t="n">
-        <v>-6001000000</v>
+        <v>-3601000000</v>
       </c>
       <c r="V16" t="n">
-        <v>-5137000000</v>
+        <v>-1021000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20062500</v>
+        <v>20062000</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>211000000000</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>146000000000</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>65000000000</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1586573000000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1638128000000</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>51555000000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4249636400</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1201000000</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>-46293000000</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-86601000000</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.097286501971252</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.181382018146926</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.86597349121201</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.633427056123663</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.2879460977458528</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>206750363600</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>59549363600</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>59549363600</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>105842363600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20062600</v>
+        <v>20062100</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>20000000000</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20000000000</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1638128000000</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1647248000000</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9120000000</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1731000000</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>-1980000000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-5600000000</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.431015297556918</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-2.847116721616904</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-0.5883846030660641</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-2.637768095618265</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.07190518327827917</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>18269000000</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>18269000000</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>20249000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20062700</v>
+        <v>20062200</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1631,96 +1597,126 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1635527000000</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1626909000000</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-8618000000</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+        <v>12801000000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>43650000000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-1075000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1075000000</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6502064262599703</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5934642364777378</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.761099084570027</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.6580346026818601</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.5938990470053808</v>
+      </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-12801000000</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-56451000000</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-55376000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20062800</v>
+        <v>20062300</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>190000000000</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>185000000000</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5000000000</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1626909000000</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1612877000000</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-14032000000</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5704144800</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1731000000</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-14000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-14000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4278819845653216</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5013062947638903</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.2212393114865335</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.7468386529102113</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.3610837439586853</v>
+      </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>184295855200</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-2435144800</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-2435144800</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-2421144800</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20062900</v>
+        <v>20062400</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -1735,254 +1731,242 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1647248000000</v>
+        <v>1612877000000</v>
       </c>
       <c r="G21" t="n">
-        <v>1644690000000</v>
+        <v>1586573000000</v>
       </c>
       <c r="H21" t="n">
-        <v>-2558000000</v>
+        <v>-26304000000</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8801000000</v>
+        <v>6001000000</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-100000000</v>
+        <v>-864000000</v>
       </c>
       <c r="M21" t="n">
-        <v>-500000000</v>
+        <v>-2508000000</v>
       </c>
       <c r="N21" t="n">
-        <v>1.463926539198626</v>
+        <v>-2.599536458904117</v>
       </c>
       <c r="O21" t="n">
-        <v>2.306932398326642</v>
+        <v>-2.732124893187729</v>
       </c>
       <c r="P21" t="n">
-        <v>4.873557253522415</v>
+        <v>-5.901476647404943</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.119656644574982</v>
+        <v>-4.117256069655388</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04102658002804487</v>
+        <v>0.4758939241101803</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-8801000000</v>
+        <v>-6001000000</v>
       </c>
       <c r="U21" t="n">
-        <v>-8801000000</v>
+        <v>-6001000000</v>
       </c>
       <c r="V21" t="n">
-        <v>-8701000000</v>
+        <v>-5137000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20063000</v>
+        <v>20062500</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>331000000000</v>
+        <v>211000000000</v>
       </c>
       <c r="D22" t="n">
-        <v>248000000000</v>
+        <v>146000000000</v>
       </c>
       <c r="E22" t="n">
-        <v>83000000000</v>
+        <v>65000000000</v>
       </c>
       <c r="F22" t="n">
-        <v>1644690000000</v>
+        <v>1586573000000</v>
       </c>
       <c r="G22" t="n">
-        <v>1722032000000</v>
+        <v>1638128000000</v>
       </c>
       <c r="H22" t="n">
-        <v>77342000000</v>
+        <v>51555000000</v>
       </c>
       <c r="I22" t="n">
-        <v>29235095200</v>
+        <v>4249636400</v>
       </c>
       <c r="J22" t="n">
-        <v>1735000000</v>
+        <v>1201000000</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>295000000</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>-46293000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-86601000000</v>
+      </c>
       <c r="N22" t="n">
-        <v>1.542523427359198</v>
+        <v>1.097286501971252</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8508796723165883</v>
+        <v>1.181382018146926</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.084763652362899</v>
+        <v>1.86597349121201</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.00050501816319</v>
+        <v>2.633427056123663</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.154005670974298</v>
+        <v>0.2879460977458528</v>
       </c>
       <c r="S22" t="n">
-        <v>301764904800</v>
+        <v>206750363600</v>
       </c>
       <c r="T22" t="n">
-        <v>52029904800</v>
+        <v>59549363600</v>
       </c>
       <c r="U22" t="n">
-        <v>52029904800</v>
+        <v>59549363600</v>
       </c>
       <c r="V22" t="n">
-        <v>51734904800</v>
+        <v>105842363600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20070100</v>
+        <v>20062600</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>20000000000</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>20000000000</v>
       </c>
       <c r="F23" t="n">
-        <v>1722032000000</v>
+        <v>1638128000000</v>
       </c>
       <c r="G23" t="n">
-        <v>1656747000000</v>
+        <v>1647248000000</v>
       </c>
       <c r="H23" t="n">
-        <v>-65285000000</v>
+        <v>9120000000</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2401000000</v>
+        <v>1731000000</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>-1470000000</v>
+        <v>-1980000000</v>
       </c>
       <c r="M23" t="n">
-        <v>-2953000000</v>
+        <v>-5600000000</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5013029553568004</v>
+        <v>-2.431015297556918</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.301051082610334</v>
+        <v>-2.847116721616904</v>
       </c>
       <c r="P23" t="n">
-        <v>1.38052016805733</v>
+        <v>-0.5883846030660641</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.676818678583795</v>
+        <v>-2.637768095618265</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.1950944066095202</v>
+        <v>0.07190518327827917</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-2401000000</v>
+        <v>18269000000</v>
       </c>
       <c r="U23" t="n">
-        <v>-2401000000</v>
+        <v>18269000000</v>
       </c>
       <c r="V23" t="n">
-        <v>-931000000</v>
+        <v>20249000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20070200</v>
+        <v>20062700</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>152000000000</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23000000000</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1659147000000</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2400000000</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>13530083800</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3601000000</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>-42556000000</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-71373000000</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.4501120620449166</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.3562117200229949</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.086480282866811</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>7.288701470384248</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.1235231546034148</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>161469916200</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>48424916200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20070300</v>
+        <v>20062800</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -1997,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1659147000000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1661799000000</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2652000000</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2012,9 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2036,10 +2018,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20070400</v>
+        <v>20062900</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2051,96 +2033,122 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1647248000000</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1644690000000</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-2558000000</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>8801000000</v>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-100000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.463926539198626</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.306932398326642</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.873557253522415</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.119656644574982</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.04102658002804487</v>
+      </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-8801000000</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8801000000</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-8701000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20070500</v>
+        <v>20063000</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>331000000000</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>248000000000</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>83000000000</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1644690000000</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1722032000000</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>77342000000</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>29235095200</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1735000000</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>295000000</v>
+      </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1.542523427359198</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8508796723165883</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-1.084763652362899</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7.00050501816319</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.154005670974298</v>
+      </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>301764904800</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>52029904800</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>52029904800</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>51734904800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20070600</v>
+        <v>20070100</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2155,127 +2163,127 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1661799000000</v>
+        <v>1722032000000</v>
       </c>
       <c r="G28" t="n">
-        <v>1660660000000</v>
+        <v>1656747000000</v>
       </c>
       <c r="H28" t="n">
-        <v>-1139000000</v>
+        <v>-65285000000</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2401000000</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-500000000</v>
+        <v>-1470000000</v>
       </c>
       <c r="M28" t="n">
-        <v>-500000000</v>
+        <v>-2953000000</v>
       </c>
       <c r="N28" t="n">
-        <v>1.575448225744402</v>
+        <v>0.5013029553568004</v>
       </c>
       <c r="O28" t="n">
-        <v>1.768227827016889</v>
+        <v>-0.301051082610334</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5695877566926065</v>
+        <v>1.38052016805733</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.76111893664226</v>
+        <v>3.676818678583795</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.5455468563793007</v>
+        <v>-0.1950944066095202</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-2401000000</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-2401000000</v>
       </c>
       <c r="V28" t="n">
-        <v>500000000</v>
+        <v>-931000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20070700</v>
+        <v>20070200</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>145000000000</v>
+        <v>175000000000</v>
       </c>
       <c r="D29" t="n">
-        <v>150000000000</v>
+        <v>152000000000</v>
       </c>
       <c r="E29" t="n">
-        <v>-5000000000</v>
+        <v>23000000000</v>
       </c>
       <c r="F29" t="n">
-        <v>1660660000000</v>
+        <v>1656747000000</v>
       </c>
       <c r="G29" t="n">
-        <v>1642079000000</v>
+        <v>1659147000000</v>
       </c>
       <c r="H29" t="n">
-        <v>-18581000000</v>
+        <v>2400000000</v>
       </c>
       <c r="I29" t="n">
-        <v>6437622800</v>
+        <v>13530083800</v>
       </c>
       <c r="J29" t="n">
-        <v>12801000000</v>
+        <v>3601000000</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>-701000000</v>
+        <v>-42556000000</v>
       </c>
       <c r="M29" t="n">
-        <v>-795000000</v>
+        <v>-71373000000</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.086390488381492</v>
+        <v>0.4501120620449166</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.516313087641564</v>
+        <v>0.3562117200229949</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.02458735534767477</v>
+        <v>2.086480282866811</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.301060431585421</v>
+        <v>7.288701470384248</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0930194706879845</v>
+        <v>0.1235231546034148</v>
       </c>
       <c r="S29" t="n">
-        <v>138562377200</v>
+        <v>161469916200</v>
       </c>
       <c r="T29" t="n">
-        <v>-24238622800</v>
+        <v>5868916200</v>
       </c>
       <c r="U29" t="n">
-        <v>-24238622800</v>
+        <v>5868916200</v>
       </c>
       <c r="V29" t="n">
-        <v>-23537622800</v>
+        <v>48424916200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20070800</v>
+        <v>20070300</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2287,127 +2295,101 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1642079000000</v>
+        <v>1659147000000</v>
       </c>
       <c r="G30" t="n">
-        <v>1624404000000</v>
+        <v>1661799000000</v>
       </c>
       <c r="H30" t="n">
-        <v>-17675000000</v>
+        <v>2652000000</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1732000000</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-2562000000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>-3242000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.7808222625285763</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.6824631836796503</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.6917060206534573</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-1.706760175711744</v>
-      </c>
-      <c r="R30" t="n">
-        <v>-0.4639622210057633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-1732000000</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-1732000000</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>830000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20070900</v>
+        <v>20070400</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>155000000000</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20000000000</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1624404000000</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1642285000000</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17881000000</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>10875237800</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6001000000</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>-26054000000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-54218000000</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-0.5632536362400912</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-1.384137043556206</v>
-      </c>
-      <c r="P31" t="n">
-        <v>-3.131888004517528</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.032944016248662</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.2799343199681946</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>164124762200</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3123762200</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>3123762200</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>29177762200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20071000</v>
+        <v>20070500</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2419,61 +2401,47 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1642285000000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1641080000000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1205000000</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1201000000</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>-40000000</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-40000000</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.046480713249013</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.437158088986327</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.349672213623037</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>10.77148962157504</v>
-      </c>
-      <c r="R32" t="n">
-        <v>-0.05167485515584625</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1201000000</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-1201000000</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1161000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20071100</v>
+        <v>20070600</v>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2485,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1661799000000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1660660000000</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-1139000000</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2500,13 +2468,27 @@
         <v>0</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.575448225744402</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.768227827016889</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.5695877566926065</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>12.76111893664226</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.5455468563793007</v>
+      </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
@@ -2517,333 +2499,331 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20071200</v>
+        <v>20070700</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>145000000000</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>150000000000</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-5000000000</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1660660000000</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1642079000000</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-18581000000</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>12801000000</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>-701000000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-795000000</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.086390488381492</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-1.516313087641564</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.02458735534767477</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.301060431585421</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0930194706879845</v>
+      </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>138562377200</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-24238622800</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-24238622800</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-23537622800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20071300</v>
+        <v>20070800</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1641080000000</v>
+        <v>1642079000000</v>
       </c>
       <c r="G35" t="n">
-        <v>1653555000000</v>
+        <v>1624404000000</v>
       </c>
       <c r="H35" t="n">
-        <v>12475000000</v>
+        <v>-17675000000</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1732000000</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>-275000000</v>
+        <v>-2562000000</v>
       </c>
       <c r="M35" t="n">
-        <v>-275000000</v>
+        <v>-3242000000</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.9304001033515519</v>
+        <v>0.7808222625285763</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04003802420691794</v>
+        <v>0.6824631836796503</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.297404587658154</v>
+        <v>0.6917060206534573</v>
       </c>
       <c r="Q35" t="n">
-        <v>-2.868593479223176</v>
+        <v>-1.706760175711744</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.09311397048957253</v>
+        <v>-0.4639622210057633</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25000000</v>
+        <v>-1732000000</v>
       </c>
       <c r="U35" t="n">
-        <v>25000000</v>
+        <v>-1732000000</v>
       </c>
       <c r="V35" t="n">
-        <v>300000000</v>
+        <v>830000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20071400</v>
+        <v>20070900</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>135000000000</v>
+        <v>175000000000</v>
       </c>
       <c r="D36" t="n">
-        <v>180000000000</v>
+        <v>155000000000</v>
       </c>
       <c r="E36" t="n">
-        <v>-45000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F36" t="n">
-        <v>1653555000000</v>
+        <v>1624404000000</v>
       </c>
       <c r="G36" t="n">
-        <v>1627709000000</v>
+        <v>1642285000000</v>
       </c>
       <c r="H36" t="n">
-        <v>-25846000000</v>
+        <v>17881000000</v>
       </c>
       <c r="I36" t="n">
-        <v>6657527900</v>
+        <v>10875237800</v>
       </c>
       <c r="J36" t="n">
-        <v>1732000000</v>
-      </c>
-      <c r="K36" t="n">
-        <v>59556734928</v>
-      </c>
+        <v>6001000000</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>2114000000</v>
+        <v>-26054000000</v>
       </c>
       <c r="M36" t="n">
-        <v>-94000000</v>
+        <v>-54218000000</v>
       </c>
       <c r="N36" t="n">
-        <v>1.346659218604838</v>
+        <v>-0.5632536362400912</v>
       </c>
       <c r="O36" t="n">
-        <v>2.137864497775151</v>
+        <v>-1.384137043556206</v>
       </c>
       <c r="P36" t="n">
-        <v>0.4798041634532336</v>
+        <v>-3.131888004517528</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.268636904522815</v>
+        <v>2.032944016248662</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.3107472752416666</v>
+        <v>0.2799343199681946</v>
       </c>
       <c r="S36" t="n">
-        <v>128342472100</v>
+        <v>164124762200</v>
       </c>
       <c r="T36" t="n">
-        <v>-53389527900</v>
+        <v>3123762200</v>
       </c>
       <c r="U36" t="n">
-        <v>-112946262828</v>
+        <v>3123762200</v>
       </c>
       <c r="V36" t="n">
-        <v>-115060262828</v>
+        <v>29177762200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20071500</v>
+        <v>20071000</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>94000000000</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>56000000000</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>38000000000</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1627709000000</v>
+        <v>1642285000000</v>
       </c>
       <c r="G37" t="n">
-        <v>1740455000000</v>
+        <v>1641080000000</v>
       </c>
       <c r="H37" t="n">
-        <v>112746000000</v>
+        <v>-1205000000</v>
       </c>
       <c r="I37" t="n">
-        <v>7457547200</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12801000000</v>
+        <v>1201000000</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>-40000000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-40000000</v>
+      </c>
       <c r="N37" t="n">
-        <v>0.9001927860159984</v>
+        <v>1.046480713249013</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8423227005985889</v>
+        <v>1.437158088986327</v>
       </c>
       <c r="P37" t="n">
-        <v>2.244142699219629</v>
+        <v>2.349672213623037</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.893062925307842</v>
+        <v>10.77148962157504</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1871688765757988</v>
+        <v>-0.05167485515584625</v>
       </c>
       <c r="S37" t="n">
-        <v>86542452800</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>17741452800</v>
+        <v>-1201000000</v>
       </c>
       <c r="U37" t="n">
-        <v>17741452800</v>
+        <v>-1201000000</v>
       </c>
       <c r="V37" t="n">
-        <v>17731452800</v>
+        <v>-1161000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20071600</v>
+        <v>20071100</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>209000000000</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>184000000000</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1740455000000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1807305000000</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>66850000000</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>18724230800</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3601000000</v>
-      </c>
-      <c r="K38" t="n">
-        <v>12148000000</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-26353000000</v>
-      </c>
-      <c r="M38" t="n">
-        <v>-45880000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.3425422915885264</v>
-      </c>
-      <c r="O38" t="n">
-        <v>-0.5061907762122538</v>
-      </c>
-      <c r="P38" t="n">
-        <v>-1.098366486530777</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-3.07143397244584</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.2812465031941732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>190275769200</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2674769200</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-9473230800</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>16879769200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20071700</v>
+        <v>20071200</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2855,77 +2835,65 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1807305000000</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1812801000000</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5496000000</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1199000000</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>0.2840978788711261</v>
-      </c>
-      <c r="O39" t="n">
-        <v>-0.2344075126535486</v>
-      </c>
-      <c r="P39" t="n">
-        <v>-0.3929269219441016</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.01321161441250016</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-0.4258371810480386</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-1199000000</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>-1199000000</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>-1199000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20071800</v>
+        <v>20071300</v>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1641080000000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1653555000000</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12475000000</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2934,215 +2902,243 @@
         <v>0</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>-275000000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-275000000</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.9304001033515519</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.04003802420691794</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.297404587658154</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-2.868593479223176</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.09311397048957253</v>
+      </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20071900</v>
+        <v>20071400</v>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>135000000000</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>180000000000</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-45000000000</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1653555000000</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1627709000000</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-25846000000</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+        <v>1732000000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>59556734928</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2114000000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-94000000</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.346659218604838</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.137864497775151</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.4798041634532336</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.268636904522815</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.3107472752416666</v>
+      </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>128342472100</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-53389527900</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-112946262828</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-115060262828</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20072000</v>
+        <v>20071500</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>94000000000</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>56000000000</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>38000000000</v>
       </c>
       <c r="F42" t="n">
-        <v>1812801000000</v>
+        <v>1627709000000</v>
       </c>
       <c r="G42" t="n">
-        <v>1817270000000</v>
+        <v>1740455000000</v>
       </c>
       <c r="H42" t="n">
-        <v>4469000000</v>
+        <v>112746000000</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7457547200</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>12801000000</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>-3550000000</v>
-      </c>
-      <c r="M42" t="n">
-        <v>-3550000000</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>0.8408085840118025</v>
+        <v>0.9001927860159984</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03345770878211009</v>
+        <v>0.8423227005985889</v>
       </c>
       <c r="P42" t="n">
-        <v>0.4429141434033333</v>
+        <v>2.244142699219629</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.358729255617085</v>
+        <v>1.893062925307842</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.1145720319800436</v>
+        <v>-0.1871688765757988</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>86542452800</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="V42" t="n">
-        <v>3550000000</v>
+        <v>17731452800</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20072100</v>
+        <v>20071600</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>125000000000</v>
+        <v>209000000000</v>
       </c>
       <c r="D43" t="n">
-        <v>170000000000</v>
+        <v>184000000000</v>
       </c>
       <c r="E43" t="n">
-        <v>-45000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="F43" t="n">
-        <v>1817270000000</v>
+        <v>1740455000000</v>
       </c>
       <c r="G43" t="n">
-        <v>1794448000000</v>
+        <v>1807305000000</v>
       </c>
       <c r="H43" t="n">
-        <v>-22822000000</v>
+        <v>66850000000</v>
       </c>
       <c r="I43" t="n">
-        <v>5332930800</v>
+        <v>18724230800</v>
       </c>
       <c r="J43" t="n">
-        <v>1734000000</v>
+        <v>3601000000</v>
       </c>
       <c r="K43" t="n">
-        <v>29183280071</v>
+        <v>12148000000</v>
       </c>
       <c r="L43" t="n">
-        <v>-1616000000</v>
+        <v>-26353000000</v>
       </c>
       <c r="M43" t="n">
-        <v>-2208000000</v>
+        <v>-45880000000</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1670468868134096</v>
+        <v>-0.3425422915885264</v>
       </c>
       <c r="O43" t="n">
-        <v>0.5945306672427577</v>
+        <v>-0.5061907762122538</v>
       </c>
       <c r="P43" t="n">
-        <v>2.829022553540424</v>
+        <v>-1.098366486530777</v>
       </c>
       <c r="Q43" t="n">
-        <v>-4.551414524024201</v>
+        <v>-3.07143397244584</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.7415134041489883</v>
+        <v>0.2812465031941732</v>
       </c>
       <c r="S43" t="n">
-        <v>119667069200</v>
+        <v>190275769200</v>
       </c>
       <c r="T43" t="n">
-        <v>-52066930800</v>
+        <v>2674769200</v>
       </c>
       <c r="U43" t="n">
-        <v>-81250210871</v>
+        <v>-9473230800</v>
       </c>
       <c r="V43" t="n">
-        <v>-79634210871</v>
+        <v>16879769200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20072200</v>
+        <v>20071700</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -3157,127 +3153,111 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1794448000000</v>
+        <v>1807305000000</v>
       </c>
       <c r="G44" t="n">
-        <v>1777180000000</v>
+        <v>1812801000000</v>
       </c>
       <c r="H44" t="n">
-        <v>-17268000000</v>
+        <v>5496000000</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1199000000</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>-1339000000</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-2516000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>0.5751390254972526</v>
+        <v>0.2840978788711261</v>
       </c>
       <c r="O44" t="n">
-        <v>0.6167461824244995</v>
+        <v>-0.2344075126535486</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.1444332144232653</v>
+        <v>-0.3929269219441016</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.499060081496248</v>
+        <v>0.01321161441250016</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.1576805741719043</v>
+        <v>-0.4258371810480386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1199000000</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1199000000</v>
       </c>
       <c r="V44" t="n">
-        <v>1339000000</v>
+        <v>-1199000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20072300</v>
+        <v>20071800</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>185000000000</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>153000000000</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>32000000000</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1777180000000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1821824000000</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>44644000000</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16277175800</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>-3756000000</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-4258000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-1.233635386138733</v>
-      </c>
-      <c r="O45" t="n">
-        <v>-1.311434002946211</v>
-      </c>
-      <c r="P45" t="n">
-        <v>-1.97855021682848</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-4.720808366580733</v>
-      </c>
-      <c r="R45" t="n">
-        <v>-0.2947976093922036</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>168722824200</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>15722824200</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>15722824200</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>19478824200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20072400</v>
+        <v>20071900</v>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -3289,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1821824000000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1825498000000</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3674000000</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3304,27 +3284,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>-20000000</v>
-      </c>
-      <c r="M46" t="n">
-        <v>-20000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-0.6223250256536601</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-0.6875838878253876</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.5358042214928733</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-6.784552766329935</v>
-      </c>
-      <c r="R46" t="n">
-        <v>-0.2637965694370324</v>
-      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
         <v>0</v>
       </c>
@@ -3335,15 +3301,15 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20072500</v>
+        <v>20072000</v>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -3355,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1812801000000</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1817270000000</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>4469000000</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3370,13 +3336,27 @@
         <v>0</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>-3550000000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-3550000000</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8408085840118025</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.03345770878211009</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.4429141434033333</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>9.358729255617085</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.1145720319800436</v>
+      </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
@@ -3387,64 +3367,80 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>3550000000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20072600</v>
+        <v>20072100</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>125000000000</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>170000000000</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>-45000000000</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1817270000000</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1794448000000</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>-22822000000</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>5332930800</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+        <v>1734000000</v>
+      </c>
+      <c r="K48" t="n">
+        <v>29183280071</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-1616000000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-2208000000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1670468868134096</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.5945306672427577</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.829022553540424</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-4.551414524024201</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.7415134041489883</v>
+      </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>119667069200</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>-52066930800</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>-81250210871</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>-79634210871</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20072700</v>
+        <v>20072200</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -3459,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1825498000000</v>
+        <v>1794448000000</v>
       </c>
       <c r="G49" t="n">
-        <v>1830546000000</v>
+        <v>1777180000000</v>
       </c>
       <c r="H49" t="n">
-        <v>5048000000</v>
+        <v>-17268000000</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3475,23 +3471,25 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>-1339000000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-2516000000</v>
+      </c>
       <c r="N49" t="n">
-        <v>0.7385469044350499</v>
+        <v>0.5751390254972526</v>
       </c>
       <c r="O49" t="n">
-        <v>0.4343630519790444</v>
+        <v>0.6167461824244995</v>
       </c>
       <c r="P49" t="n">
-        <v>1.139111549019555</v>
+        <v>-0.1444332144232653</v>
       </c>
       <c r="Q49" t="n">
-        <v>8.543552305640244</v>
+        <v>1.499060081496248</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.8055136709291276</v>
+        <v>-0.1576805741719043</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3503,78 +3501,78 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1339000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20072800</v>
+        <v>20072300</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>120000000000</v>
+        <v>185000000000</v>
       </c>
       <c r="D50" t="n">
-        <v>150000000000</v>
+        <v>153000000000</v>
       </c>
       <c r="E50" t="n">
-        <v>-30000000000</v>
+        <v>32000000000</v>
       </c>
       <c r="F50" t="n">
-        <v>1830546000000</v>
+        <v>1777180000000</v>
       </c>
       <c r="G50" t="n">
-        <v>1795511000000</v>
+        <v>1821824000000</v>
       </c>
       <c r="H50" t="n">
-        <v>-35035000000</v>
+        <v>44644000000</v>
       </c>
       <c r="I50" t="n">
-        <v>6398553400</v>
+        <v>16277175800</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>-500000000</v>
+        <v>-3756000000</v>
       </c>
       <c r="M50" t="n">
-        <v>-500000000</v>
+        <v>-4258000000</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.648367964841854</v>
+        <v>-1.233635386138733</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.7745740692941615</v>
+        <v>-1.311434002946211</v>
       </c>
       <c r="P50" t="n">
-        <v>-1.34453190414843</v>
+        <v>-1.97855021682848</v>
       </c>
       <c r="Q50" t="n">
-        <v>-4.196142643056017</v>
+        <v>-4.720808366580733</v>
       </c>
       <c r="R50" t="n">
-        <v>0.08549030721234582</v>
+        <v>-0.2947976093922036</v>
       </c>
       <c r="S50" t="n">
-        <v>113601446600</v>
+        <v>168722824200</v>
       </c>
       <c r="T50" t="n">
-        <v>-36398553400</v>
+        <v>15722824200</v>
       </c>
       <c r="U50" t="n">
-        <v>-36398553400</v>
+        <v>15722824200</v>
       </c>
       <c r="V50" t="n">
-        <v>-35898553400</v>
+        <v>19478824200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20072900</v>
+        <v>20072400</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -3589,189 +3587,165 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1795511000000</v>
+        <v>1821824000000</v>
       </c>
       <c r="G51" t="n">
-        <v>1792434000000</v>
+        <v>1825498000000</v>
       </c>
       <c r="H51" t="n">
-        <v>-3077000000</v>
+        <v>3674000000</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>12825000000</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>-242000000</v>
+        <v>-20000000</v>
       </c>
       <c r="M51" t="n">
-        <v>-242000000</v>
+        <v>-20000000</v>
       </c>
       <c r="N51" t="n">
-        <v>1.239456881251422</v>
+        <v>-0.6223250256536601</v>
       </c>
       <c r="O51" t="n">
-        <v>0.6074289308002935</v>
+        <v>-0.6875838878253876</v>
       </c>
       <c r="P51" t="n">
-        <v>0.5592014010780763</v>
+        <v>0.5358042214928733</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.506995011138408</v>
+        <v>-6.784552766329935</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.5333333333333333</v>
+        <v>-0.2637965694370324</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-12825000000</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>-12825000000</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>-12583000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20073000</v>
+        <v>20072500</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>165000000000</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>186000000000</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-21000000000</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1792434000000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1767341000000</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-25093000000</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>12161641600</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>-10275000000</v>
-      </c>
-      <c r="M52" t="n">
-        <v>-15378000000</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-0.3781212301098812</v>
-      </c>
-      <c r="O52" t="n">
-        <v>-0.8568146695595794</v>
-      </c>
-      <c r="P52" t="n">
-        <v>-3.267188525626882</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>-0.7809136503486223</v>
-      </c>
-      <c r="R52" t="n">
-        <v>-0.3536239092733198</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>152838358400</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>-33161641600</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>-33161641600</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>-22886641600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20073100</v>
+        <v>20072600</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>196000000000</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>151000000000</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>45000000000</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1767341000000</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1763090000000</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-4251000000</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>22273141400</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1750000000</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
-        <v>0.7613676055630426</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.4342023123486262</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.867630856456271</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>-3.744553166254125</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.6033156221018349</v>
-      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>173726858600</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>20976858600</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>20976858600</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>20976858600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20080100</v>
+        <v>20072700</v>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -3783,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1825498000000</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1830546000000</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>5048000000</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3798,13 +3772,25 @@
         <v>0</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>0.7385469044350499</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.4343630519790444</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.139111549019555</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>8.543552305640244</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.8055136709291276</v>
+      </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
@@ -3820,59 +3806,73 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20080200</v>
+        <v>20072800</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>120000000000</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>150000000000</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-30000000000</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1830546000000</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1795511000000</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>-35035000000</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>6398553400</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.648367964841854</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.7745740692941615</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.34453190414843</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-4.196142643056017</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.08549030721234582</v>
+      </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>113601446600</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>-36398553400</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>-36398553400</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>-35898553400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20080300</v>
+        <v>20072900</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -3887,48 +3887,346 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
+        <v>1795511000000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-3077000000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12825000000</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.239456881251422</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.6074289308002935</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.5592014010780763</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.506995011138408</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.5333333333333333</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-12825000000</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-12825000000</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-12583000000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20073000</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>186000000000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-21000000000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-25093000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12161641600</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>-10275000000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-15378000000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.3781212301098812</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.8568146695595794</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-3.267188525626882</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.7809136503486223</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.3536239092733198</v>
+      </c>
+      <c r="S57" t="n">
+        <v>152838358400</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-33161641600</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-33161641600</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-22886641600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20073100</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>151000000000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="G58" t="n">
         <v>1763090000000</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H58" t="n">
+        <v>-4251000000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>22273141400</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>0.7613676055630426</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.4342023123486262</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.867630856456271</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-3.744553166254125</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.6033156221018349</v>
+      </c>
+      <c r="S58" t="n">
+        <v>173726858600</v>
+      </c>
+      <c r="T58" t="n">
+        <v>20976858600</v>
+      </c>
+      <c r="U58" t="n">
+        <v>20976858600</v>
+      </c>
+      <c r="V58" t="n">
+        <v>20976858600</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20080100</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20080200</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20080300</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1763090000000</v>
+      </c>
+      <c r="G61" t="n">
         <v>1745136000000</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H61" t="n">
         <v>-17954000000</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>8825000000</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>0.7143592710008744</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O61" t="n">
         <v>0.8894477775321663</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P61" t="n">
         <v>2.054959219856146</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q61" t="n">
         <v>3.742754075482448</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R61" t="n">
         <v>0.01070205042633099</v>
       </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
         <v>-8825000000</v>
       </c>
-      <c r="U56" t="n">
+      <c r="U61" t="n">
         <v>-8825000000</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V61" t="n">
         <v>-8825000000</v>
       </c>
     </row>

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,76 +548,62 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20070200</v>
+        <v>20061300</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>152000000000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23000000000</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1659147000000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2400000000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13530083800</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3601000000</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>-42556000000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-71373000000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.4501120620449166</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.3562117200229949</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.086480282866811</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7.288701470384248</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1235231546034148</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>161469916200</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>48424916200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20070300</v>
+        <v>20061400</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -629,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1659147000000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1661799000000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2652000000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -644,9 +630,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -668,111 +652,137 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20070400</v>
+        <v>20061500</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>92000000000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>24000000000</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>68000000000</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1541349000000</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1597571000000</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56222000000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1308000000</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4401000000</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0.8444240424887671</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.623738255925753</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.246458038116906</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.060209464994879</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.6591815982988862</v>
+      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>90692000000</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>62291000000</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>62291000000</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>62291000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20070500</v>
+        <v>20061600</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205000000000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>195000000000</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1597571000000</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1588615000000</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-8956000000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6771856400</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4140000000</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-5000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.857230991496327</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.001089080557835</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.400815552433555</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.8667312094534071</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2899738881279159</v>
+      </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198228143600</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-911856400</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-911856400</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-920856400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20070600</v>
+        <v>20061700</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -787,52 +797,1212 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>1588615000000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1565306000000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-23309000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18607000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-142000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-475000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3587223877957163</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.6470479762003841</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.1073081472801</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9780171234102023</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2061690271440812</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-25000000</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-18632000000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-18490000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20061800</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>238000000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>169000000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69000000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1565306000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1634655000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69349000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17645591700</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4401000000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>-72973000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-117660000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0596490153701297</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.1518645580447827</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.33174623470495</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.213364301626371</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2678146909065761</v>
+      </c>
+      <c r="S7" t="n">
+        <v>220354408300</v>
+      </c>
+      <c r="T7" t="n">
+        <v>46953408300</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46953408300</v>
+      </c>
+      <c r="V7" t="n">
+        <v>119926408300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20061900</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1634655000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1635527000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>872000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>-2580000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2880000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.5604608949275374</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.795932854122987</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.342342041578926</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.3021384180253002</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.205301356390781</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-3601000000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-3601000000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-1021000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20062000</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20062100</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20062200</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1635527000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1626909000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-8618000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12801000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43650000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-1075000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1075000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6502064262599703</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5934642364777378</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.761099084570027</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.6580346026818601</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.5938990470053808</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-12801000000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-56451000000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-55376000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20062300</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>190000000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>185000000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5000000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1626909000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1612877000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-14032000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5704144800</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1731000000</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>-14000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-14000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.4278819845653216</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5013062947638903</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.2212393114865335</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.7468386529102113</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.3610837439586853</v>
+      </c>
+      <c r="S12" t="n">
+        <v>184295855200</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-2435144800</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-2435144800</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-2421144800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20062400</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1612877000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1586573000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-26304000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6001000000</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>-864000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2508000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-2.599536458904117</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-2.732124893187729</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-5.901476647404943</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-4.117256069655388</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.4758939241101803</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-6001000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-6001000000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-5137000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20062500</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>211000000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>146000000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1586573000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1638128000000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>51555000000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4249636400</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1201000000</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>-46293000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-86601000000</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.097286501971252</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.181382018146926</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.86597349121201</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.633427056123663</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.2879460977458528</v>
+      </c>
+      <c r="S14" t="n">
+        <v>206750363600</v>
+      </c>
+      <c r="T14" t="n">
+        <v>59549363600</v>
+      </c>
+      <c r="U14" t="n">
+        <v>59549363600</v>
+      </c>
+      <c r="V14" t="n">
+        <v>105842363600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20062600</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1638128000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9120000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1731000000</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>-1980000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-5600000000</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-2.431015297556918</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-2.847116721616904</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.5883846030660641</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-2.637768095618265</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.07190518327827917</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>18269000000</v>
+      </c>
+      <c r="U15" t="n">
+        <v>18269000000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>20249000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20062700</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20062800</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20062900</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-2558000000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8801000000</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>-100000000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.463926539198626</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.306932398326642</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.873557253522415</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5.119656644574982</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04102658002804487</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-8801000000</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-8801000000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-8701000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20063000</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>331000000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>248000000000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>83000000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>77342000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>29235095200</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1735000000</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>295000000</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>1.542523427359198</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8508796723165883</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-1.084763652362899</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7.00050501816319</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.154005670974298</v>
+      </c>
+      <c r="S19" t="n">
+        <v>301764904800</v>
+      </c>
+      <c r="T19" t="n">
+        <v>52029904800</v>
+      </c>
+      <c r="U19" t="n">
+        <v>52029904800</v>
+      </c>
+      <c r="V19" t="n">
+        <v>51734904800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20070100</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-65285000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2401000000</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-1470000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-2953000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5013029553568004</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.301051082610334</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.38052016805733</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.676818678583795</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.1950944066095202</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-2401000000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-2401000000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-931000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20070200</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>175000000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>152000000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23000000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13530083800</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>-42556000000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-71373000000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4501120620449166</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3562117200229949</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.086480282866811</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.288701470384248</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1235231546034148</v>
+      </c>
+      <c r="S21" t="n">
+        <v>161469916200</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5868916200</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5868916200</v>
+      </c>
+      <c r="V21" t="n">
+        <v>48424916200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20070300</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="G22" t="n">
         <v>1661799000000</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H22" t="n">
+        <v>2652000000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20070400</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20070500</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20070600</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1661799000000</v>
+      </c>
+      <c r="G25" t="n">
         <v>1660660000000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H25" t="n">
         <v>-1139000000</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
         <v>-500000000</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M25" t="n">
         <v>-500000000</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N25" t="n">
         <v>1.575448225744402</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O25" t="n">
         <v>1.768227827016889</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P25" t="n">
         <v>0.5695877566926065</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q25" t="n">
         <v>12.76111893664226</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R25" t="n">
         <v>-0.5455468563793007</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>500000000</v>
       </c>
     </row>

--- a/.idea/output.xlsx
+++ b/.idea/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,10 +548,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20061300</v>
+        <v>20070100</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -563,229 +563,233 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1722032000000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1656747000000</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-65285000000</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2401000000</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>-1470000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-2953000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5013029553568004</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.301051082610334</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.38052016805733</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.676818678583795</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.1950944066095202</v>
+      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-2401000000</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-2401000000</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-931000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20061400</v>
+        <v>20070200</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>175000000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>152000000000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23000000000</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1656747000000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1659147000000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2400000000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3601000000</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>-42556000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-71373000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4501120620449166</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3562117200229949</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.086480282866811</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7.288701470384248</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1235231546034148</v>
+      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>161469916200</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>5868916200</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>5868916200</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>48424916200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20061500</v>
+        <v>20070300</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>92000000000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24000000000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68000000000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1541349000000</v>
+        <v>1659147000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1597571000000</v>
+        <v>1661799000000</v>
       </c>
       <c r="H4" t="n">
-        <v>56222000000</v>
+        <v>2652000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1308000000</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4401000000</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>0.8444240424887671</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.623738255925753</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.246458038116906</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.060209464994879</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.6591815982988862</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>90692000000</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>62291000000</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>62291000000</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>62291000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20061600</v>
+        <v>20070400</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205000000000</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>195000000000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1597571000000</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1588615000000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-8956000000</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6771856400</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4140000000</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-5000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.857230991496327</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.001089080557835</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.400815552433555</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.8667312094534071</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.2899738881279159</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>198228143600</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-911856400</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-911856400</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-920856400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20061700</v>
+        <v>20070500</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -797,195 +801,179 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1588615000000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1565306000000</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-23309000000</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18607000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-142000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-475000000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-0.3587223877957163</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-0.6470479762003841</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-1.1073081472801</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9780171234102023</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2061690271440812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-25000000</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-18632000000</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-18490000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20061800</v>
+        <v>20070600</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>238000000000</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>169000000000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69000000000</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1565306000000</v>
+        <v>1661799000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1634655000000</v>
+        <v>1660660000000</v>
       </c>
       <c r="H7" t="n">
-        <v>69349000000</v>
+        <v>-1139000000</v>
       </c>
       <c r="I7" t="n">
-        <v>17645591700</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4401000000</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-72973000000</v>
+        <v>-500000000</v>
       </c>
       <c r="M7" t="n">
-        <v>-117660000000</v>
+        <v>-500000000</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0596490153701297</v>
+        <v>1.575448225744402</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1518645580447827</v>
+        <v>1.768227827016889</v>
       </c>
       <c r="P7" t="n">
-        <v>2.33174623470495</v>
+        <v>0.5695877566926065</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.213364301626371</v>
+        <v>12.76111893664226</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2678146909065761</v>
+        <v>-0.5455468563793007</v>
       </c>
       <c r="S7" t="n">
-        <v>220354408300</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>46953408300</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46953408300</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>119926408300</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20061900</v>
+        <v>20070700</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>145000000000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150000000000</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-5000000000</v>
       </c>
       <c r="F8" t="n">
-        <v>1634655000000</v>
+        <v>1660660000000</v>
       </c>
       <c r="G8" t="n">
-        <v>1635527000000</v>
+        <v>1642079000000</v>
       </c>
       <c r="H8" t="n">
-        <v>872000000</v>
+        <v>-18581000000</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="J8" t="n">
-        <v>3601000000</v>
+        <v>12801000000</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-2580000000</v>
+        <v>-701000000</v>
       </c>
       <c r="M8" t="n">
-        <v>-2880000000</v>
+        <v>-795000000</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.5604608949275374</v>
+        <v>-1.086390488381492</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.795932854122987</v>
+        <v>-1.516313087641564</v>
       </c>
       <c r="P8" t="n">
-        <v>2.342342041578926</v>
+        <v>-0.02458735534767477</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.3021384180253002</v>
+        <v>1.301060431585421</v>
       </c>
       <c r="R8" t="n">
-        <v>0.205301356390781</v>
+        <v>0.0930194706879845</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>138562377200</v>
       </c>
       <c r="T8" t="n">
-        <v>-3601000000</v>
+        <v>-24238622800</v>
       </c>
       <c r="U8" t="n">
-        <v>-3601000000</v>
+        <v>-24238622800</v>
       </c>
       <c r="V8" t="n">
-        <v>-1021000000</v>
+        <v>-23537622800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20062000</v>
+        <v>20070800</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -997,96 +985,124 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1642079000000</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1624404000000</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-17675000000</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1732000000</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>-2562000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-3242000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7808222625285763</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.6824631836796503</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.6917060206534573</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1.706760175711744</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.4639622210057633</v>
+      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-1732000000</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-1732000000</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>830000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20062100</v>
+        <v>20070900</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>175000000000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>155000000000</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>20000000000</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1624404000000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1642285000000</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17881000000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10875237800</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6001000000</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>-26054000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-54218000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.5632536362400912</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1.384137043556206</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-3.131888004517528</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.032944016248662</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2799343199681946</v>
+      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>164124762200</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3123762200</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3123762200</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>29177762200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20062200</v>
+        <v>20071000</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1101,129 +1117,113 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1635527000000</v>
+        <v>1642285000000</v>
       </c>
       <c r="G11" t="n">
-        <v>1626909000000</v>
+        <v>1641080000000</v>
       </c>
       <c r="H11" t="n">
-        <v>-8618000000</v>
+        <v>-1205000000</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12801000000</v>
-      </c>
-      <c r="K11" t="n">
-        <v>43650000000</v>
-      </c>
+        <v>1201000000</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>-1075000000</v>
+        <v>-40000000</v>
       </c>
       <c r="M11" t="n">
-        <v>-1075000000</v>
+        <v>-40000000</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6502064262599703</v>
+        <v>1.046480713249013</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5934642364777378</v>
+        <v>1.437158088986327</v>
       </c>
       <c r="P11" t="n">
-        <v>1.761099084570027</v>
+        <v>2.349672213623037</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.6580346026818601</v>
+        <v>10.77148962157504</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.5938990470053808</v>
+        <v>-0.05167485515584625</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-12801000000</v>
+        <v>-1201000000</v>
       </c>
       <c r="U11" t="n">
-        <v>-56451000000</v>
+        <v>-1201000000</v>
       </c>
       <c r="V11" t="n">
-        <v>-55376000000</v>
+        <v>-1161000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20062300</v>
+        <v>20071100</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>190000000000</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>185000000000</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>5000000000</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1626909000000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1612877000000</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-14032000000</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5704144800</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1731000000</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>-14000000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-14000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.4278819845653216</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.5013062947638903</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-0.2212393114865335</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.7468386529102113</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-0.3610837439586853</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>184295855200</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-2435144800</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-2435144800</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-2421144800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20062400</v>
+        <v>20071200</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1235,294 +1235,310 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1612877000000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1586573000000</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-26304000000</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6001000000</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>-864000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-2508000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.599536458904117</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-2.732124893187729</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-5.901476647404943</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-4.117256069655388</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.4758939241101803</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-6001000000</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-6001000000</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-5137000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20062500</v>
+        <v>20071300</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>211000000000</v>
+        <v>25000000</v>
       </c>
       <c r="D14" t="n">
-        <v>146000000000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>65000000000</v>
+        <v>25000000</v>
       </c>
       <c r="F14" t="n">
-        <v>1586573000000</v>
+        <v>1641080000000</v>
       </c>
       <c r="G14" t="n">
-        <v>1638128000000</v>
+        <v>1653555000000</v>
       </c>
       <c r="H14" t="n">
-        <v>51555000000</v>
+        <v>12475000000</v>
       </c>
       <c r="I14" t="n">
-        <v>4249636400</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1201000000</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>-46293000000</v>
+        <v>-275000000</v>
       </c>
       <c r="M14" t="n">
-        <v>-86601000000</v>
+        <v>-275000000</v>
       </c>
       <c r="N14" t="n">
-        <v>1.097286501971252</v>
+        <v>-0.9304001033515519</v>
       </c>
       <c r="O14" t="n">
-        <v>1.181382018146926</v>
+        <v>0.04003802420691794</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86597349121201</v>
+        <v>-0.297404587658154</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.633427056123663</v>
+        <v>-2.868593479223176</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2879460977458528</v>
+        <v>-0.09311397048957253</v>
       </c>
       <c r="S14" t="n">
-        <v>206750363600</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59549363600</v>
+        <v>25000000</v>
       </c>
       <c r="U14" t="n">
-        <v>59549363600</v>
+        <v>25000000</v>
       </c>
       <c r="V14" t="n">
-        <v>105842363600</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20062600</v>
+        <v>20071400</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>20000000000</v>
+        <v>135000000000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>180000000000</v>
       </c>
       <c r="E15" t="n">
-        <v>20000000000</v>
+        <v>-45000000000</v>
       </c>
       <c r="F15" t="n">
-        <v>1638128000000</v>
+        <v>1653555000000</v>
       </c>
       <c r="G15" t="n">
-        <v>1647248000000</v>
+        <v>1627709000000</v>
       </c>
       <c r="H15" t="n">
-        <v>9120000000</v>
+        <v>-25846000000</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="J15" t="n">
-        <v>1731000000</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>1732000000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>59556734928</v>
+      </c>
       <c r="L15" t="n">
-        <v>-1980000000</v>
+        <v>2114000000</v>
       </c>
       <c r="M15" t="n">
-        <v>-5600000000</v>
+        <v>-94000000</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.431015297556918</v>
+        <v>1.346659218604838</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.847116721616904</v>
+        <v>2.137864497775151</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.5883846030660641</v>
+        <v>0.4798041634532336</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2.637768095618265</v>
+        <v>1.268636904522815</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07190518327827917</v>
+        <v>-0.3107472752416666</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128342472100</v>
       </c>
       <c r="T15" t="n">
-        <v>18269000000</v>
+        <v>-53389527900</v>
       </c>
       <c r="U15" t="n">
-        <v>18269000000</v>
+        <v>-112946262828</v>
       </c>
       <c r="V15" t="n">
-        <v>20249000000</v>
+        <v>-115060262828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20062700</v>
+        <v>20071500</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>94000000000</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>56000000000</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>38000000000</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1627709000000</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1740455000000</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>112746000000</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7457547200</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12801000000</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>10000000</v>
+      </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>0.9001927860159984</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8423227005985889</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.244142699219629</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.893062925307842</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.1871688765757988</v>
+      </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>86542452800</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>17741452800</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>17731452800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20062800</v>
+        <v>20071600</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>209000000000</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>184000000000</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1740455000000</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1807305000000</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>66850000000</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+        <v>3601000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12148000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-26353000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-45880000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.3425422915885264</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.5061907762122538</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-1.098366486530777</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-3.07143397244584</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2812465031941732</v>
+      </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>190275769200</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2674769200</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-9473230800</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>16879769200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20062900</v>
+        <v>20071700</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -1537,125 +1553,111 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1647248000000</v>
+        <v>1807305000000</v>
       </c>
       <c r="G18" t="n">
-        <v>1644690000000</v>
+        <v>1812801000000</v>
       </c>
       <c r="H18" t="n">
-        <v>-2558000000</v>
+        <v>5496000000</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8801000000</v>
+        <v>1199000000</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-100000000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-500000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>1.463926539198626</v>
+        <v>0.2840978788711261</v>
       </c>
       <c r="O18" t="n">
-        <v>2.306932398326642</v>
+        <v>-0.2344075126535486</v>
       </c>
       <c r="P18" t="n">
-        <v>4.873557253522415</v>
+        <v>-0.3929269219441016</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.119656644574982</v>
+        <v>0.01321161441250016</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04102658002804487</v>
+        <v>-0.4258371810480386</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-8801000000</v>
+        <v>-1199000000</v>
       </c>
       <c r="U18" t="n">
-        <v>-8801000000</v>
+        <v>-1199000000</v>
       </c>
       <c r="V18" t="n">
-        <v>-8701000000</v>
+        <v>-1199000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20063000</v>
+        <v>20071800</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>331000000000</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>248000000000</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>83000000000</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1644690000000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1722032000000</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>77342000000</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>29235095200</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1735000000</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>295000000</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1.542523427359198</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.8508796723165883</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-1.084763652362899</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>7.00050501816319</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-0.154005670974298</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>301764904800</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>52029904800</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>52029904800</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>51734904800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20070100</v>
+        <v>20071900</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1667,181 +1669,181 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1722032000000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1656747000000</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-65285000000</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2401000000</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>-1470000000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-2953000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.5013029553568004</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-0.301051082610334</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.38052016805733</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.676818678583795</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-0.1950944066095202</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-2401000000</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-931000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20070200</v>
+        <v>20072000</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>175000000000</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>152000000000</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>23000000000</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1656747000000</v>
+        <v>1812801000000</v>
       </c>
       <c r="G21" t="n">
-        <v>1659147000000</v>
+        <v>1817270000000</v>
       </c>
       <c r="H21" t="n">
-        <v>2400000000</v>
+        <v>4469000000</v>
       </c>
       <c r="I21" t="n">
-        <v>13530083800</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3601000000</v>
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-42556000000</v>
+        <v>-3550000000</v>
       </c>
       <c r="M21" t="n">
-        <v>-71373000000</v>
+        <v>-3550000000</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4501120620449166</v>
+        <v>0.8408085840118025</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3562117200229949</v>
+        <v>0.03345770878211009</v>
       </c>
       <c r="P21" t="n">
-        <v>2.086480282866811</v>
+        <v>0.4429141434033333</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.288701470384248</v>
+        <v>9.358729255617085</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1235231546034148</v>
+        <v>-0.1145720319800436</v>
       </c>
       <c r="S21" t="n">
-        <v>161469916200</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5868916200</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>48424916200</v>
+        <v>3550000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20070300</v>
+        <v>20072100</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125000000000</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>170000000000</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-45000000000</v>
       </c>
       <c r="F22" t="n">
-        <v>1659147000000</v>
+        <v>1817270000000</v>
       </c>
       <c r="G22" t="n">
-        <v>1661799000000</v>
+        <v>1794448000000</v>
       </c>
       <c r="H22" t="n">
-        <v>2652000000</v>
+        <v>-22822000000</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5332930800</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>1734000000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>29183280071</v>
+      </c>
       <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+        <v>-1616000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-2208000000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1670468868134096</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5945306672427577</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.829022553540424</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-4.551414524024201</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.7415134041489883</v>
+      </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>119667069200</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-52066930800</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-81250210871</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-79634210871</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20070400</v>
+        <v>20072200</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1794448000000</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1777180000000</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-17268000000</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1868,13 +1870,27 @@
         <v>0</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-1339000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-2516000000</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5751390254972526</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6167461824244995</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1444332144232653</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.499060081496248</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1576805741719043</v>
+      </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
@@ -1885,64 +1901,78 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1339000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20070500</v>
+        <v>20072300</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>185000000000</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>153000000000</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>32000000000</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1777180000000</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1821824000000</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>44644000000</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>-3756000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-4258000000</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1.233635386138733</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-1.311434002946211</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-1.97855021682848</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-4.720808366580733</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.2947976093922036</v>
+      </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168722824200</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>15722824200</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>15722824200</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>19478824200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20070600</v>
+        <v>20072400</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -1957,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1661799000000</v>
+        <v>1821824000000</v>
       </c>
       <c r="G25" t="n">
-        <v>1660660000000</v>
+        <v>1825498000000</v>
       </c>
       <c r="H25" t="n">
-        <v>-1139000000</v>
+        <v>3674000000</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1973,37 +2003,873 @@
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
+        <v>-20000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-20000000</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.6223250256536601</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.6875838878253876</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5358042214928733</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-6.784552766329935</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.2637965694370324</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20072500</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20072600</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20072700</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1825498000000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1830546000000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5048000000</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>0.7385469044350499</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.4343630519790444</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.139111549019555</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>8.543552305640244</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.8055136709291276</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20072800</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>150000000000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-30000000000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1830546000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1795511000000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-35035000000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6398553400</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
         <v>-500000000</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M29" t="n">
         <v>-500000000</v>
       </c>
-      <c r="N25" t="n">
-        <v>1.575448225744402</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.768227827016889</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.5695877566926065</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>12.76111893664226</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-0.5455468563793007</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>500000000</v>
+      <c r="N29" t="n">
+        <v>-0.648367964841854</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.7745740692941615</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-1.34453190414843</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-4.196142643056017</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.08549030721234582</v>
+      </c>
+      <c r="S29" t="n">
+        <v>113601446600</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-36398553400</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-36398553400</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-35898553400</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20072900</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1795511000000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-3077000000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12825000000</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-242000000</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.239456881251422</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6074289308002935</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.5592014010780763</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.506995011138408</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.5333333333333333</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-12825000000</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-12825000000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-12583000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20073000</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>186000000000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-21000000000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-25093000000</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12161641600</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>-10275000000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-15378000000</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.3781212301098812</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.8568146695595794</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-3.267188525626882</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.7809136503486223</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.3536239092733198</v>
+      </c>
+      <c r="S31" t="n">
+        <v>152838358400</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-33161641600</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-33161641600</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-22886641600</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20073100</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>151000000000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1763090000000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-4251000000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22273141400</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>0.7613676055630426</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4342023123486262</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.867630856456271</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-3.744553166254125</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6033156221018349</v>
+      </c>
+      <c r="S32" t="n">
+        <v>173726858600</v>
+      </c>
+      <c r="T32" t="n">
+        <v>20976858600</v>
+      </c>
+      <c r="U32" t="n">
+        <v>20976858600</v>
+      </c>
+      <c r="V32" t="n">
+        <v>20976858600</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20080100</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20080200</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20080300</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1763090000000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1745136000000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-17954000000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8825000000</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>0.7143592710008744</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8894477775321663</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.054959219856146</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.742754075482448</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.01070205042633099</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-8825000000</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-8825000000</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-8825000000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20080400</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>145000000000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-25000000000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6238188600</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>-92000000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-92000000</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.361707963304103</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.6153111421681946</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.692011922659864</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1337783685015957</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.1282628791293814</v>
+      </c>
+      <c r="S36" t="n">
+        <v>113761811400</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-31238188600</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-31238188600</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-31146188600</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20080500</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1708214000000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1706637000000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1577000000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1225000000</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>-1443000000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-1443000000</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.640869393965888</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.385522325036468</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.179013107743624</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.1326184690922928</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.5899339295930398</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-1225000000</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-1225000000</v>
+      </c>
+      <c r="V37" t="n">
+        <v>218000000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>179000000000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-14000000000</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>11550602300</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6025000000</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>-5881000000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-10346000000</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6436593096646827</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.682573935446028</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.5688501341111615</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.3058656357767894</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.04311837552527647</v>
+      </c>
+      <c r="S38" t="n">
+        <v>153449397700</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-31575602300</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-31575602300</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-25694602300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20080700</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-1750000000</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-1750000000</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-1750000000</v>
       </c>
     </row>
   </sheetData>
